--- a/output/mpdl.xlsx
+++ b/output/mpdl.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="137">
   <si>
     <t>Pais-Año</t>
   </si>
@@ -25,46 +25,46 @@
     <t>Gross_National_Income</t>
   </si>
   <si>
-    <t>Subvencion_publica</t>
-  </si>
-  <si>
-    <t>dinero_anyo_anterior_en_proyectos</t>
-  </si>
-  <si>
-    <t>Vision_ONGD_Latinoamerica</t>
+    <t>Public_Grant</t>
+  </si>
+  <si>
+    <t>NGO_Country_Budget_Previous_Year</t>
+  </si>
+  <si>
+    <t>Vision_ONGD_LatinAmerica</t>
   </si>
   <si>
     <t>Vision_ONGD_Africa</t>
   </si>
   <si>
-    <t>Vision_ONGD_Confesional</t>
+    <t>Vision_ONGD_Confessional</t>
   </si>
   <si>
     <t>Vision_ONGD_Universal</t>
   </si>
   <si>
-    <t>Fondos_Publicos_MAE</t>
-  </si>
-  <si>
-    <t>Fondos_Publicos_Descentralizada</t>
-  </si>
-  <si>
-    <t>Fondos_Publicos_Internacional</t>
-  </si>
-  <si>
-    <t>Fondos_Publicos_Otros</t>
-  </si>
-  <si>
-    <t>Fondos_Publicos_Total</t>
-  </si>
-  <si>
-    <t>Fondos_Privados_Cuotas</t>
-  </si>
-  <si>
-    <t>Fondos_Privados_Donaciones</t>
-  </si>
-  <si>
-    <t>Fondos_Privados_Empresas</t>
+    <t>Public_Funds_MAE</t>
+  </si>
+  <si>
+    <t>Public_Funds_Decentralized</t>
+  </si>
+  <si>
+    <t>Public_Funds_Internacional</t>
+  </si>
+  <si>
+    <t>Public_Funds_Other</t>
+  </si>
+  <si>
+    <t>Public_Funds_Total</t>
+  </si>
+  <si>
+    <t>Private_Funds_Cuotas</t>
+  </si>
+  <si>
+    <t>Public_Funds_Donations</t>
+  </si>
+  <si>
+    <t>Public_Funds_Companies</t>
   </si>
   <si>
     <t>Fondos_Privados_Venta</t>
@@ -116,6 +116,15 @@
   </si>
   <si>
     <t>Proporcion_Fondos_Privados</t>
+  </si>
+  <si>
+    <t>Anyo_ONG</t>
+  </si>
+  <si>
+    <t>Internacional</t>
+  </si>
+  <si>
+    <t>Colony</t>
   </si>
   <si>
     <t>Visitado</t>
@@ -756,7 +765,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AJ98"/>
+  <dimension ref="A1:AM98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -765,7 +774,7 @@
     <col min="1" max="1" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36">
+    <row r="1" spans="1:39">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -874,10 +883,19 @@
       <c r="AJ1" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="AK1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="2" spans="1:36">
+    <row r="2" spans="1:39">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -976,15 +994,24 @@
         <v>0.10505486158613</v>
       </c>
       <c r="AI2">
-        <v>1</v>
+        <v>1983</v>
       </c>
       <c r="AJ2">
+        <v>0</v>
+      </c>
+      <c r="AK2">
+        <v>1</v>
+      </c>
+      <c r="AL2">
+        <v>1</v>
+      </c>
+      <c r="AM2">
         <v>126964</v>
       </c>
     </row>
-    <row r="3" spans="1:36">
+    <row r="3" spans="1:39">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1083,15 +1110,24 @@
         <v>0.10505486158613</v>
       </c>
       <c r="AI3">
-        <v>1</v>
+        <v>1983</v>
       </c>
       <c r="AJ3">
+        <v>0</v>
+      </c>
+      <c r="AK3">
+        <v>1</v>
+      </c>
+      <c r="AL3">
+        <v>1</v>
+      </c>
+      <c r="AM3">
         <v>240144</v>
       </c>
     </row>
-    <row r="4" spans="1:36">
+    <row r="4" spans="1:39">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1190,15 +1226,24 @@
         <v>0.10505486158613</v>
       </c>
       <c r="AI4">
-        <v>1</v>
+        <v>1983</v>
       </c>
       <c r="AJ4">
+        <v>0</v>
+      </c>
+      <c r="AK4">
+        <v>1</v>
+      </c>
+      <c r="AL4">
+        <v>1</v>
+      </c>
+      <c r="AM4">
         <v>35343</v>
       </c>
     </row>
-    <row r="5" spans="1:36">
+    <row r="5" spans="1:39">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1297,15 +1342,24 @@
         <v>0.10505486158613</v>
       </c>
       <c r="AI5">
-        <v>1</v>
+        <v>1983</v>
       </c>
       <c r="AJ5">
+        <v>0</v>
+      </c>
+      <c r="AK5">
+        <v>1</v>
+      </c>
+      <c r="AL5">
+        <v>1</v>
+      </c>
+      <c r="AM5">
         <v>144440</v>
       </c>
     </row>
-    <row r="6" spans="1:36">
+    <row r="6" spans="1:39">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1404,15 +1458,24 @@
         <v>0.10505486158613</v>
       </c>
       <c r="AI6">
-        <v>1</v>
+        <v>1983</v>
       </c>
       <c r="AJ6">
+        <v>0</v>
+      </c>
+      <c r="AK6">
+        <v>1</v>
+      </c>
+      <c r="AL6">
+        <v>1</v>
+      </c>
+      <c r="AM6">
         <v>3138</v>
       </c>
     </row>
-    <row r="7" spans="1:36">
+    <row r="7" spans="1:39">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1511,15 +1574,24 @@
         <v>0.10505486158613</v>
       </c>
       <c r="AI7">
-        <v>1</v>
+        <v>1983</v>
       </c>
       <c r="AJ7">
+        <v>0</v>
+      </c>
+      <c r="AK7">
+        <v>0</v>
+      </c>
+      <c r="AL7">
+        <v>1</v>
+      </c>
+      <c r="AM7">
         <v>131046</v>
       </c>
     </row>
-    <row r="8" spans="1:36">
+    <row r="8" spans="1:39">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1618,15 +1690,24 @@
         <v>0.10505486158613</v>
       </c>
       <c r="AI8">
-        <v>1</v>
+        <v>1983</v>
       </c>
       <c r="AJ8">
+        <v>0</v>
+      </c>
+      <c r="AK8">
+        <v>1</v>
+      </c>
+      <c r="AL8">
+        <v>1</v>
+      </c>
+      <c r="AM8">
         <v>181182</v>
       </c>
     </row>
-    <row r="9" spans="1:36">
+    <row r="9" spans="1:39">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1725,15 +1806,24 @@
         <v>0.10505486158613</v>
       </c>
       <c r="AI9">
-        <v>1</v>
+        <v>1983</v>
       </c>
       <c r="AJ9">
+        <v>0</v>
+      </c>
+      <c r="AK9">
+        <v>1</v>
+      </c>
+      <c r="AL9">
+        <v>1</v>
+      </c>
+      <c r="AM9">
         <v>132846</v>
       </c>
     </row>
-    <row r="10" spans="1:36">
+    <row r="10" spans="1:39">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1832,15 +1922,24 @@
         <v>0.10505486158613</v>
       </c>
       <c r="AI10">
-        <v>1</v>
+        <v>1983</v>
       </c>
       <c r="AJ10">
+        <v>0</v>
+      </c>
+      <c r="AK10">
+        <v>0</v>
+      </c>
+      <c r="AL10">
+        <v>1</v>
+      </c>
+      <c r="AM10">
         <v>767420</v>
       </c>
     </row>
-    <row r="11" spans="1:36">
+    <row r="11" spans="1:39">
       <c r="A11" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1939,15 +2038,24 @@
         <v>0.10505486158613</v>
       </c>
       <c r="AI11">
-        <v>1</v>
+        <v>1983</v>
       </c>
       <c r="AJ11">
+        <v>0</v>
+      </c>
+      <c r="AK11">
+        <v>0</v>
+      </c>
+      <c r="AL11">
+        <v>1</v>
+      </c>
+      <c r="AM11">
         <v>102666</v>
       </c>
     </row>
-    <row r="12" spans="1:36">
+    <row r="12" spans="1:39">
       <c r="A12" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -2046,15 +2154,24 @@
         <v>0.10505486158613</v>
       </c>
       <c r="AI12">
-        <v>1</v>
+        <v>1983</v>
       </c>
       <c r="AJ12">
+        <v>0</v>
+      </c>
+      <c r="AK12">
+        <v>0</v>
+      </c>
+      <c r="AL12">
+        <v>1</v>
+      </c>
+      <c r="AM12">
         <v>40376</v>
       </c>
     </row>
-    <row r="13" spans="1:36">
+    <row r="13" spans="1:39">
       <c r="A13" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -2153,15 +2270,24 @@
         <v>0.10505486158613</v>
       </c>
       <c r="AI13">
-        <v>1</v>
+        <v>1983</v>
       </c>
       <c r="AJ13">
+        <v>0</v>
+      </c>
+      <c r="AK13">
+        <v>0</v>
+      </c>
+      <c r="AL13">
+        <v>1</v>
+      </c>
+      <c r="AM13">
         <v>286584</v>
       </c>
     </row>
-    <row r="14" spans="1:36">
+    <row r="14" spans="1:39">
       <c r="A14" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -2260,15 +2386,24 @@
         <v>0.04562825333836128</v>
       </c>
       <c r="AI14">
-        <v>1</v>
+        <v>1983</v>
       </c>
       <c r="AJ14">
+        <v>0</v>
+      </c>
+      <c r="AK14">
+        <v>1</v>
+      </c>
+      <c r="AL14">
+        <v>1</v>
+      </c>
+      <c r="AM14">
         <v>292800</v>
       </c>
     </row>
-    <row r="15" spans="1:36">
+    <row r="15" spans="1:39">
       <c r="A15" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -2367,15 +2502,24 @@
         <v>0.04562825333836128</v>
       </c>
       <c r="AI15">
-        <v>1</v>
+        <v>1983</v>
       </c>
       <c r="AJ15">
+        <v>0</v>
+      </c>
+      <c r="AK15">
+        <v>1</v>
+      </c>
+      <c r="AL15">
+        <v>1</v>
+      </c>
+      <c r="AM15">
         <v>338686</v>
       </c>
     </row>
-    <row r="16" spans="1:36">
+    <row r="16" spans="1:39">
       <c r="A16" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -2474,15 +2618,24 @@
         <v>0.04562825333836128</v>
       </c>
       <c r="AI16">
-        <v>1</v>
+        <v>1983</v>
       </c>
       <c r="AJ16">
+        <v>0</v>
+      </c>
+      <c r="AK16">
+        <v>0</v>
+      </c>
+      <c r="AL16">
+        <v>1</v>
+      </c>
+      <c r="AM16">
         <v>292800</v>
       </c>
     </row>
-    <row r="17" spans="1:36">
+    <row r="17" spans="1:39">
       <c r="A17" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -2581,15 +2734,24 @@
         <v>0.04562825333836128</v>
       </c>
       <c r="AI17">
-        <v>1</v>
+        <v>1983</v>
       </c>
       <c r="AJ17">
+        <v>0</v>
+      </c>
+      <c r="AK17">
+        <v>0</v>
+      </c>
+      <c r="AL17">
+        <v>1</v>
+      </c>
+      <c r="AM17">
         <v>292800</v>
       </c>
     </row>
-    <row r="18" spans="1:36">
+    <row r="18" spans="1:39">
       <c r="A18" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -2688,15 +2850,24 @@
         <v>0.04562825333836128</v>
       </c>
       <c r="AI18">
-        <v>1</v>
+        <v>1983</v>
       </c>
       <c r="AJ18">
+        <v>0</v>
+      </c>
+      <c r="AK18">
+        <v>1</v>
+      </c>
+      <c r="AL18">
+        <v>1</v>
+      </c>
+      <c r="AM18">
         <v>178473</v>
       </c>
     </row>
-    <row r="19" spans="1:36">
+    <row r="19" spans="1:39">
       <c r="A19" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -2795,15 +2966,24 @@
         <v>0.04562825333836128</v>
       </c>
       <c r="AI19">
-        <v>1</v>
+        <v>1983</v>
       </c>
       <c r="AJ19">
+        <v>0</v>
+      </c>
+      <c r="AK19">
+        <v>1</v>
+      </c>
+      <c r="AL19">
+        <v>1</v>
+      </c>
+      <c r="AM19">
         <v>518207</v>
       </c>
     </row>
-    <row r="20" spans="1:36">
+    <row r="20" spans="1:39">
       <c r="A20" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -2902,15 +3082,24 @@
         <v>0.04562825333836128</v>
       </c>
       <c r="AI20">
-        <v>1</v>
+        <v>1983</v>
       </c>
       <c r="AJ20">
+        <v>0</v>
+      </c>
+      <c r="AK20">
+        <v>0</v>
+      </c>
+      <c r="AL20">
+        <v>1</v>
+      </c>
+      <c r="AM20">
         <v>11151</v>
       </c>
     </row>
-    <row r="21" spans="1:36">
+    <row r="21" spans="1:39">
       <c r="A21" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -3009,15 +3198,24 @@
         <v>0.04562825333836128</v>
       </c>
       <c r="AI21">
-        <v>1</v>
+        <v>1983</v>
       </c>
       <c r="AJ21">
+        <v>0</v>
+      </c>
+      <c r="AK21">
+        <v>1</v>
+      </c>
+      <c r="AL21">
+        <v>1</v>
+      </c>
+      <c r="AM21">
         <v>284121</v>
       </c>
     </row>
-    <row r="22" spans="1:36">
+    <row r="22" spans="1:39">
       <c r="A22" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -3116,15 +3314,24 @@
         <v>0.04562825333836128</v>
       </c>
       <c r="AI22">
-        <v>1</v>
+        <v>1983</v>
       </c>
       <c r="AJ22">
+        <v>0</v>
+      </c>
+      <c r="AK22">
+        <v>0</v>
+      </c>
+      <c r="AL22">
+        <v>1</v>
+      </c>
+      <c r="AM22">
         <v>328089</v>
       </c>
     </row>
-    <row r="23" spans="1:36">
+    <row r="23" spans="1:39">
       <c r="A23" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -3223,15 +3430,24 @@
         <v>0.04562825333836128</v>
       </c>
       <c r="AI23">
-        <v>1</v>
+        <v>1983</v>
       </c>
       <c r="AJ23">
+        <v>0</v>
+      </c>
+      <c r="AK23">
+        <v>1</v>
+      </c>
+      <c r="AL23">
+        <v>1</v>
+      </c>
+      <c r="AM23">
         <v>1021337</v>
       </c>
     </row>
-    <row r="24" spans="1:36">
+    <row r="24" spans="1:39">
       <c r="A24" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -3330,15 +3546,24 @@
         <v>0.04562825333836128</v>
       </c>
       <c r="AI24">
-        <v>1</v>
+        <v>1983</v>
       </c>
       <c r="AJ24">
+        <v>0</v>
+      </c>
+      <c r="AK24">
+        <v>1</v>
+      </c>
+      <c r="AL24">
+        <v>1</v>
+      </c>
+      <c r="AM24">
         <v>184681</v>
       </c>
     </row>
-    <row r="25" spans="1:36">
+    <row r="25" spans="1:39">
       <c r="A25" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -3437,15 +3662,24 @@
         <v>0.04562825333836128</v>
       </c>
       <c r="AI25">
-        <v>1</v>
+        <v>1983</v>
       </c>
       <c r="AJ25">
+        <v>0</v>
+      </c>
+      <c r="AK25">
+        <v>0</v>
+      </c>
+      <c r="AL25">
+        <v>1</v>
+      </c>
+      <c r="AM25">
         <v>72116</v>
       </c>
     </row>
-    <row r="26" spans="1:36">
+    <row r="26" spans="1:39">
       <c r="A26" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -3544,15 +3778,24 @@
         <v>0.04562825333836128</v>
       </c>
       <c r="AI26">
-        <v>1</v>
+        <v>1983</v>
       </c>
       <c r="AJ26">
+        <v>0</v>
+      </c>
+      <c r="AK26">
+        <v>0</v>
+      </c>
+      <c r="AL26">
+        <v>1</v>
+      </c>
+      <c r="AM26">
         <v>72116</v>
       </c>
     </row>
-    <row r="27" spans="1:36">
+    <row r="27" spans="1:39">
       <c r="A27" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -3651,15 +3894,24 @@
         <v>0.04562825333836128</v>
       </c>
       <c r="AI27">
-        <v>1</v>
+        <v>1983</v>
       </c>
       <c r="AJ27">
+        <v>0</v>
+      </c>
+      <c r="AK27">
+        <v>0</v>
+      </c>
+      <c r="AL27">
+        <v>1</v>
+      </c>
+      <c r="AM27">
         <v>647715</v>
       </c>
     </row>
-    <row r="28" spans="1:36">
+    <row r="28" spans="1:39">
       <c r="A28" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -3758,15 +4010,24 @@
         <v>0.04562825333836128</v>
       </c>
       <c r="AI28">
-        <v>1</v>
+        <v>1983</v>
       </c>
       <c r="AJ28">
+        <v>0</v>
+      </c>
+      <c r="AK28">
+        <v>0</v>
+      </c>
+      <c r="AL28">
+        <v>1</v>
+      </c>
+      <c r="AM28">
         <v>565375</v>
       </c>
     </row>
-    <row r="29" spans="1:36">
+    <row r="29" spans="1:39">
       <c r="A29" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -3865,15 +4126,24 @@
         <v>0.04562825333836128</v>
       </c>
       <c r="AI29">
-        <v>1</v>
+        <v>1983</v>
       </c>
       <c r="AJ29">
+        <v>0</v>
+      </c>
+      <c r="AK29">
+        <v>0</v>
+      </c>
+      <c r="AL29">
+        <v>1</v>
+      </c>
+      <c r="AM29">
         <v>273672.6666666667</v>
       </c>
     </row>
-    <row r="30" spans="1:36">
+    <row r="30" spans="1:39">
       <c r="A30" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -3972,15 +4242,24 @@
         <v>0.1114276763397692</v>
       </c>
       <c r="AI30">
-        <v>1</v>
+        <v>1983</v>
       </c>
       <c r="AJ30">
+        <v>0</v>
+      </c>
+      <c r="AK30">
+        <v>1</v>
+      </c>
+      <c r="AL30">
+        <v>1</v>
+      </c>
+      <c r="AM30">
         <v>707824</v>
       </c>
     </row>
-    <row r="31" spans="1:36">
+    <row r="31" spans="1:39">
       <c r="A31" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -4079,15 +4358,24 @@
         <v>0.1114276763397692</v>
       </c>
       <c r="AI31">
-        <v>1</v>
+        <v>1983</v>
       </c>
       <c r="AJ31">
+        <v>0</v>
+      </c>
+      <c r="AK31">
+        <v>1</v>
+      </c>
+      <c r="AL31">
+        <v>1</v>
+      </c>
+      <c r="AM31">
         <v>619546</v>
       </c>
     </row>
-    <row r="32" spans="1:36">
+    <row r="32" spans="1:39">
       <c r="A32" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -4186,15 +4474,24 @@
         <v>0.1114276763397692</v>
       </c>
       <c r="AI32">
-        <v>1</v>
+        <v>1983</v>
       </c>
       <c r="AJ32">
+        <v>0</v>
+      </c>
+      <c r="AK32">
+        <v>0</v>
+      </c>
+      <c r="AL32">
+        <v>1</v>
+      </c>
+      <c r="AM32">
         <v>1851443</v>
       </c>
     </row>
-    <row r="33" spans="1:36">
+    <row r="33" spans="1:39">
       <c r="A33" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -4293,15 +4590,24 @@
         <v>0.1114276763397692</v>
       </c>
       <c r="AI33">
-        <v>1</v>
+        <v>1983</v>
       </c>
       <c r="AJ33">
+        <v>0</v>
+      </c>
+      <c r="AK33">
+        <v>0</v>
+      </c>
+      <c r="AL33">
+        <v>1</v>
+      </c>
+      <c r="AM33">
         <v>375693</v>
       </c>
     </row>
-    <row r="34" spans="1:36">
+    <row r="34" spans="1:39">
       <c r="A34" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -4400,15 +4706,24 @@
         <v>0.1114276763397692</v>
       </c>
       <c r="AI34">
-        <v>1</v>
+        <v>1983</v>
       </c>
       <c r="AJ34">
+        <v>0</v>
+      </c>
+      <c r="AK34">
+        <v>1</v>
+      </c>
+      <c r="AL34">
+        <v>1</v>
+      </c>
+      <c r="AM34">
         <v>279557</v>
       </c>
     </row>
-    <row r="35" spans="1:36">
+    <row r="35" spans="1:39">
       <c r="A35" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -4507,15 +4822,24 @@
         <v>0.1114276763397692</v>
       </c>
       <c r="AI35">
-        <v>1</v>
+        <v>1983</v>
       </c>
       <c r="AJ35">
+        <v>0</v>
+      </c>
+      <c r="AK35">
+        <v>1</v>
+      </c>
+      <c r="AL35">
+        <v>1</v>
+      </c>
+      <c r="AM35">
         <v>908980</v>
       </c>
     </row>
-    <row r="36" spans="1:36">
+    <row r="36" spans="1:39">
       <c r="A36" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -4614,15 +4938,24 @@
         <v>0.1114276763397692</v>
       </c>
       <c r="AI36">
-        <v>1</v>
+        <v>1983</v>
       </c>
       <c r="AJ36">
+        <v>0</v>
+      </c>
+      <c r="AK36">
+        <v>0</v>
+      </c>
+      <c r="AL36">
+        <v>1</v>
+      </c>
+      <c r="AM36">
         <v>99817</v>
       </c>
     </row>
-    <row r="37" spans="1:36">
+    <row r="37" spans="1:39">
       <c r="A37" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -4721,15 +5054,24 @@
         <v>0.1114276763397692</v>
       </c>
       <c r="AI37">
-        <v>1</v>
+        <v>1983</v>
       </c>
       <c r="AJ37">
+        <v>0</v>
+      </c>
+      <c r="AK37">
+        <v>1</v>
+      </c>
+      <c r="AL37">
+        <v>1</v>
+      </c>
+      <c r="AM37">
         <v>223331</v>
       </c>
     </row>
-    <row r="38" spans="1:36">
+    <row r="38" spans="1:39">
       <c r="A38" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -4828,15 +5170,24 @@
         <v>0.1114276763397692</v>
       </c>
       <c r="AI38">
-        <v>1</v>
+        <v>1983</v>
       </c>
       <c r="AJ38">
+        <v>0</v>
+      </c>
+      <c r="AK38">
+        <v>0</v>
+      </c>
+      <c r="AL38">
+        <v>1</v>
+      </c>
+      <c r="AM38">
         <v>493899</v>
       </c>
     </row>
-    <row r="39" spans="1:36">
+    <row r="39" spans="1:39">
       <c r="A39" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -4935,15 +5286,24 @@
         <v>0.1114276763397692</v>
       </c>
       <c r="AI39">
-        <v>1</v>
+        <v>1983</v>
       </c>
       <c r="AJ39">
+        <v>0</v>
+      </c>
+      <c r="AK39">
+        <v>1</v>
+      </c>
+      <c r="AL39">
+        <v>1</v>
+      </c>
+      <c r="AM39">
         <v>1931814</v>
       </c>
     </row>
-    <row r="40" spans="1:36">
+    <row r="40" spans="1:39">
       <c r="A40" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -5042,15 +5402,24 @@
         <v>0.1114276763397692</v>
       </c>
       <c r="AI40">
-        <v>1</v>
+        <v>1983</v>
       </c>
       <c r="AJ40">
+        <v>0</v>
+      </c>
+      <c r="AK40">
+        <v>1</v>
+      </c>
+      <c r="AL40">
+        <v>1</v>
+      </c>
+      <c r="AM40">
         <v>114239</v>
       </c>
     </row>
-    <row r="41" spans="1:36">
+    <row r="41" spans="1:39">
       <c r="A41" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -5149,15 +5518,24 @@
         <v>0.1114276763397692</v>
       </c>
       <c r="AI41">
-        <v>1</v>
+        <v>1983</v>
       </c>
       <c r="AJ41">
+        <v>0</v>
+      </c>
+      <c r="AK41">
+        <v>0</v>
+      </c>
+      <c r="AL41">
+        <v>1</v>
+      </c>
+      <c r="AM41">
         <v>909649</v>
       </c>
     </row>
-    <row r="42" spans="1:36">
+    <row r="42" spans="1:39">
       <c r="A42" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -5256,15 +5634,24 @@
         <v>0.1114276763397692</v>
       </c>
       <c r="AI42">
-        <v>1</v>
+        <v>1983</v>
       </c>
       <c r="AJ42">
+        <v>0</v>
+      </c>
+      <c r="AK42">
+        <v>0</v>
+      </c>
+      <c r="AL42">
+        <v>1</v>
+      </c>
+      <c r="AM42">
         <v>586045</v>
       </c>
     </row>
-    <row r="43" spans="1:36">
+    <row r="43" spans="1:39">
       <c r="A43" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -5363,15 +5750,24 @@
         <v>0.1114276763397692</v>
       </c>
       <c r="AI43">
-        <v>1</v>
+        <v>1983</v>
       </c>
       <c r="AJ43">
+        <v>0</v>
+      </c>
+      <c r="AK43">
+        <v>0</v>
+      </c>
+      <c r="AL43">
+        <v>1</v>
+      </c>
+      <c r="AM43">
         <v>457367</v>
       </c>
     </row>
-    <row r="44" spans="1:36">
+    <row r="44" spans="1:39">
       <c r="A44" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -5470,15 +5866,24 @@
         <v>0.01274401395484721</v>
       </c>
       <c r="AI44">
-        <v>1</v>
+        <v>1983</v>
       </c>
       <c r="AJ44">
+        <v>0</v>
+      </c>
+      <c r="AK44">
+        <v>1</v>
+      </c>
+      <c r="AL44">
+        <v>1</v>
+      </c>
+      <c r="AM44">
         <v>396045.805</v>
       </c>
     </row>
-    <row r="45" spans="1:36">
+    <row r="45" spans="1:39">
       <c r="A45" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -5577,15 +5982,24 @@
         <v>0.01274401395484721</v>
       </c>
       <c r="AI45">
-        <v>1</v>
+        <v>1983</v>
       </c>
       <c r="AJ45">
+        <v>0</v>
+      </c>
+      <c r="AK45">
+        <v>1</v>
+      </c>
+      <c r="AL45">
+        <v>1</v>
+      </c>
+      <c r="AM45">
         <v>362467.54</v>
       </c>
     </row>
-    <row r="46" spans="1:36">
+    <row r="46" spans="1:39">
       <c r="A46" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -5684,15 +6098,24 @@
         <v>0.01274401395484721</v>
       </c>
       <c r="AI46">
-        <v>1</v>
+        <v>1983</v>
       </c>
       <c r="AJ46">
+        <v>0</v>
+      </c>
+      <c r="AK46">
+        <v>1</v>
+      </c>
+      <c r="AL46">
+        <v>1</v>
+      </c>
+      <c r="AM46">
         <v>845.985</v>
       </c>
     </row>
-    <row r="47" spans="1:36">
+    <row r="47" spans="1:39">
       <c r="A47" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -5791,15 +6214,24 @@
         <v>0.01274401395484721</v>
       </c>
       <c r="AI47">
-        <v>1</v>
+        <v>1983</v>
       </c>
       <c r="AJ47">
+        <v>0</v>
+      </c>
+      <c r="AK47">
+        <v>1</v>
+      </c>
+      <c r="AL47">
+        <v>1</v>
+      </c>
+      <c r="AM47">
         <v>37729.87</v>
       </c>
     </row>
-    <row r="48" spans="1:36">
+    <row r="48" spans="1:39">
       <c r="A48" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B48">
         <v>1</v>
@@ -5898,15 +6330,24 @@
         <v>0.01274401395484721</v>
       </c>
       <c r="AI48">
-        <v>1</v>
+        <v>1983</v>
       </c>
       <c r="AJ48">
+        <v>0</v>
+      </c>
+      <c r="AK48">
+        <v>0</v>
+      </c>
+      <c r="AL48">
+        <v>1</v>
+      </c>
+      <c r="AM48">
         <v>158767.575</v>
       </c>
     </row>
-    <row r="49" spans="1:36">
+    <row r="49" spans="1:39">
       <c r="A49" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B49">
         <v>1</v>
@@ -6005,15 +6446,24 @@
         <v>0.01274401395484721</v>
       </c>
       <c r="AI49">
-        <v>1</v>
+        <v>1983</v>
       </c>
       <c r="AJ49">
+        <v>0</v>
+      </c>
+      <c r="AK49">
+        <v>0</v>
+      </c>
+      <c r="AL49">
+        <v>1</v>
+      </c>
+      <c r="AM49">
         <v>116385.485</v>
       </c>
     </row>
-    <row r="50" spans="1:36">
+    <row r="50" spans="1:39">
       <c r="A50" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -6112,15 +6562,24 @@
         <v>0.01274401395484721</v>
       </c>
       <c r="AI50">
-        <v>1</v>
+        <v>1983</v>
       </c>
       <c r="AJ50">
+        <v>0</v>
+      </c>
+      <c r="AK50">
+        <v>1</v>
+      </c>
+      <c r="AL50">
+        <v>1</v>
+      </c>
+      <c r="AM50">
         <v>98283.84</v>
       </c>
     </row>
-    <row r="51" spans="1:36">
+    <row r="51" spans="1:39">
       <c r="A51" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -6219,15 +6678,24 @@
         <v>0.01274401395484721</v>
       </c>
       <c r="AI51">
-        <v>1</v>
+        <v>1983</v>
       </c>
       <c r="AJ51">
+        <v>0</v>
+      </c>
+      <c r="AK51">
+        <v>1</v>
+      </c>
+      <c r="AL51">
+        <v>1</v>
+      </c>
+      <c r="AM51">
         <v>97513.14999999999</v>
       </c>
     </row>
-    <row r="52" spans="1:36">
+    <row r="52" spans="1:39">
       <c r="A52" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -6326,15 +6794,24 @@
         <v>0.01274401395484721</v>
       </c>
       <c r="AI52">
-        <v>1</v>
+        <v>1983</v>
       </c>
       <c r="AJ52">
+        <v>0</v>
+      </c>
+      <c r="AK52">
+        <v>0</v>
+      </c>
+      <c r="AL52">
+        <v>1</v>
+      </c>
+      <c r="AM52">
         <v>86163.925</v>
       </c>
     </row>
-    <row r="53" spans="1:36">
+    <row r="53" spans="1:39">
       <c r="A53" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -6433,15 +6910,24 @@
         <v>0.01274401395484721</v>
       </c>
       <c r="AI53">
-        <v>1</v>
+        <v>1983</v>
       </c>
       <c r="AJ53">
+        <v>0</v>
+      </c>
+      <c r="AK53">
+        <v>0</v>
+      </c>
+      <c r="AL53">
+        <v>1</v>
+      </c>
+      <c r="AM53">
         <v>7500</v>
       </c>
     </row>
-    <row r="54" spans="1:36">
+    <row r="54" spans="1:39">
       <c r="A54" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -6540,15 +7026,24 @@
         <v>0.01274401395484721</v>
       </c>
       <c r="AI54">
-        <v>1</v>
+        <v>1983</v>
       </c>
       <c r="AJ54">
+        <v>0</v>
+      </c>
+      <c r="AK54">
+        <v>0</v>
+      </c>
+      <c r="AL54">
+        <v>1</v>
+      </c>
+      <c r="AM54">
         <v>56488.38</v>
       </c>
     </row>
-    <row r="55" spans="1:36">
+    <row r="55" spans="1:39">
       <c r="A55" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -6647,15 +7142,24 @@
         <v>0.03550931106761278</v>
       </c>
       <c r="AI55">
-        <v>1</v>
+        <v>1983</v>
       </c>
       <c r="AJ55">
+        <v>0</v>
+      </c>
+      <c r="AK55">
+        <v>1</v>
+      </c>
+      <c r="AL55">
+        <v>1</v>
+      </c>
+      <c r="AM55">
         <v>396045.805</v>
       </c>
     </row>
-    <row r="56" spans="1:36">
+    <row r="56" spans="1:39">
       <c r="A56" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -6754,15 +7258,24 @@
         <v>0.03550931106761278</v>
       </c>
       <c r="AI56">
-        <v>1</v>
+        <v>1983</v>
       </c>
       <c r="AJ56">
+        <v>0</v>
+      </c>
+      <c r="AK56">
+        <v>1</v>
+      </c>
+      <c r="AL56">
+        <v>1</v>
+      </c>
+      <c r="AM56">
         <v>362467.54</v>
       </c>
     </row>
-    <row r="57" spans="1:36">
+    <row r="57" spans="1:39">
       <c r="A57" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -6861,15 +7374,24 @@
         <v>0.03550931106761278</v>
       </c>
       <c r="AI57">
-        <v>1</v>
+        <v>1983</v>
       </c>
       <c r="AJ57">
+        <v>0</v>
+      </c>
+      <c r="AK57">
+        <v>1</v>
+      </c>
+      <c r="AL57">
+        <v>1</v>
+      </c>
+      <c r="AM57">
         <v>845.985</v>
       </c>
     </row>
-    <row r="58" spans="1:36">
+    <row r="58" spans="1:39">
       <c r="A58" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -6968,15 +7490,24 @@
         <v>0.03550931106761278</v>
       </c>
       <c r="AI58">
-        <v>1</v>
+        <v>1983</v>
       </c>
       <c r="AJ58">
+        <v>0</v>
+      </c>
+      <c r="AK58">
+        <v>1</v>
+      </c>
+      <c r="AL58">
+        <v>1</v>
+      </c>
+      <c r="AM58">
         <v>37729.87</v>
       </c>
     </row>
-    <row r="59" spans="1:36">
+    <row r="59" spans="1:39">
       <c r="A59" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B59">
         <v>1</v>
@@ -7075,15 +7606,24 @@
         <v>0.03550931106761278</v>
       </c>
       <c r="AI59">
-        <v>1</v>
+        <v>1983</v>
       </c>
       <c r="AJ59">
+        <v>0</v>
+      </c>
+      <c r="AK59">
+        <v>0</v>
+      </c>
+      <c r="AL59">
+        <v>1</v>
+      </c>
+      <c r="AM59">
         <v>158767.575</v>
       </c>
     </row>
-    <row r="60" spans="1:36">
+    <row r="60" spans="1:39">
       <c r="A60" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B60">
         <v>1</v>
@@ -7182,15 +7722,24 @@
         <v>0.03550931106761278</v>
       </c>
       <c r="AI60">
-        <v>1</v>
+        <v>1983</v>
       </c>
       <c r="AJ60">
+        <v>0</v>
+      </c>
+      <c r="AK60">
+        <v>0</v>
+      </c>
+      <c r="AL60">
+        <v>1</v>
+      </c>
+      <c r="AM60">
         <v>116385.485</v>
       </c>
     </row>
-    <row r="61" spans="1:36">
+    <row r="61" spans="1:39">
       <c r="A61" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -7289,15 +7838,24 @@
         <v>0.03550931106761278</v>
       </c>
       <c r="AI61">
-        <v>1</v>
+        <v>1983</v>
       </c>
       <c r="AJ61">
+        <v>0</v>
+      </c>
+      <c r="AK61">
+        <v>1</v>
+      </c>
+      <c r="AL61">
+        <v>1</v>
+      </c>
+      <c r="AM61">
         <v>98283.84</v>
       </c>
     </row>
-    <row r="62" spans="1:36">
+    <row r="62" spans="1:39">
       <c r="A62" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -7396,15 +7954,24 @@
         <v>0.03550931106761278</v>
       </c>
       <c r="AI62">
-        <v>1</v>
+        <v>1983</v>
       </c>
       <c r="AJ62">
+        <v>0</v>
+      </c>
+      <c r="AK62">
+        <v>1</v>
+      </c>
+      <c r="AL62">
+        <v>1</v>
+      </c>
+      <c r="AM62">
         <v>97513.14999999999</v>
       </c>
     </row>
-    <row r="63" spans="1:36">
+    <row r="63" spans="1:39">
       <c r="A63" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -7503,15 +8070,24 @@
         <v>0.03550931106761278</v>
       </c>
       <c r="AI63">
-        <v>1</v>
+        <v>1983</v>
       </c>
       <c r="AJ63">
+        <v>0</v>
+      </c>
+      <c r="AK63">
+        <v>0</v>
+      </c>
+      <c r="AL63">
+        <v>1</v>
+      </c>
+      <c r="AM63">
         <v>86163.925</v>
       </c>
     </row>
-    <row r="64" spans="1:36">
+    <row r="64" spans="1:39">
       <c r="A64" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -7610,15 +8186,24 @@
         <v>0.03550931106761278</v>
       </c>
       <c r="AI64">
-        <v>1</v>
+        <v>1983</v>
       </c>
       <c r="AJ64">
+        <v>0</v>
+      </c>
+      <c r="AK64">
+        <v>0</v>
+      </c>
+      <c r="AL64">
+        <v>1</v>
+      </c>
+      <c r="AM64">
         <v>7500</v>
       </c>
     </row>
-    <row r="65" spans="1:36">
+    <row r="65" spans="1:39">
       <c r="A65" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -7717,15 +8302,24 @@
         <v>0.03550931106761278</v>
       </c>
       <c r="AI65">
-        <v>1</v>
+        <v>1983</v>
       </c>
       <c r="AJ65">
+        <v>0</v>
+      </c>
+      <c r="AK65">
+        <v>0</v>
+      </c>
+      <c r="AL65">
+        <v>1</v>
+      </c>
+      <c r="AM65">
         <v>56488.38</v>
       </c>
     </row>
-    <row r="66" spans="1:36">
+    <row r="66" spans="1:39">
       <c r="A66" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -7824,15 +8418,24 @@
         <v>0.02209956433526773</v>
       </c>
       <c r="AI66">
-        <v>1</v>
+        <v>1983</v>
       </c>
       <c r="AJ66">
+        <v>0</v>
+      </c>
+      <c r="AK66">
+        <v>1</v>
+      </c>
+      <c r="AL66">
+        <v>1</v>
+      </c>
+      <c r="AM66">
         <v>354729.215</v>
       </c>
     </row>
-    <row r="67" spans="1:36">
+    <row r="67" spans="1:39">
       <c r="A67" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -7931,15 +8534,24 @@
         <v>0.02209956433526773</v>
       </c>
       <c r="AI67">
-        <v>1</v>
+        <v>1983</v>
       </c>
       <c r="AJ67">
+        <v>0</v>
+      </c>
+      <c r="AK67">
+        <v>1</v>
+      </c>
+      <c r="AL67">
+        <v>1</v>
+      </c>
+      <c r="AM67">
         <v>56214.94</v>
       </c>
     </row>
-    <row r="68" spans="1:36">
+    <row r="68" spans="1:39">
       <c r="A68" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -8038,15 +8650,24 @@
         <v>0.02209956433526773</v>
       </c>
       <c r="AI68">
-        <v>1</v>
+        <v>1983</v>
       </c>
       <c r="AJ68">
+        <v>0</v>
+      </c>
+      <c r="AK68">
+        <v>1</v>
+      </c>
+      <c r="AL68">
+        <v>1</v>
+      </c>
+      <c r="AM68">
         <v>160295.21</v>
       </c>
     </row>
-    <row r="69" spans="1:36">
+    <row r="69" spans="1:39">
       <c r="A69" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -8145,15 +8766,24 @@
         <v>0.02209956433526773</v>
       </c>
       <c r="AI69">
-        <v>1</v>
+        <v>1983</v>
       </c>
       <c r="AJ69">
+        <v>0</v>
+      </c>
+      <c r="AK69">
+        <v>0</v>
+      </c>
+      <c r="AL69">
+        <v>1</v>
+      </c>
+      <c r="AM69">
         <v>77794.38499999999</v>
       </c>
     </row>
-    <row r="70" spans="1:36">
+    <row r="70" spans="1:39">
       <c r="A70" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -8252,15 +8882,24 @@
         <v>0.02209956433526773</v>
       </c>
       <c r="AI70">
-        <v>1</v>
+        <v>1983</v>
       </c>
       <c r="AJ70">
+        <v>0</v>
+      </c>
+      <c r="AK70">
+        <v>0</v>
+      </c>
+      <c r="AL70">
+        <v>1</v>
+      </c>
+      <c r="AM70">
         <v>53598.99</v>
       </c>
     </row>
-    <row r="71" spans="1:36">
+    <row r="71" spans="1:39">
       <c r="A71" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B71">
         <v>1</v>
@@ -8359,15 +8998,24 @@
         <v>0.02209956433526773</v>
       </c>
       <c r="AI71">
-        <v>1</v>
+        <v>1983</v>
       </c>
       <c r="AJ71">
+        <v>0</v>
+      </c>
+      <c r="AK71">
+        <v>0</v>
+      </c>
+      <c r="AL71">
+        <v>1</v>
+      </c>
+      <c r="AM71">
         <v>634350.265</v>
       </c>
     </row>
-    <row r="72" spans="1:36">
+    <row r="72" spans="1:39">
       <c r="A72" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -8466,15 +9114,24 @@
         <v>0.02209956433526773</v>
       </c>
       <c r="AI72">
-        <v>1</v>
+        <v>1983</v>
       </c>
       <c r="AJ72">
+        <v>0</v>
+      </c>
+      <c r="AK72">
+        <v>1</v>
+      </c>
+      <c r="AL72">
+        <v>1</v>
+      </c>
+      <c r="AM72">
         <v>187712.025</v>
       </c>
     </row>
-    <row r="73" spans="1:36">
+    <row r="73" spans="1:39">
       <c r="A73" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -8573,15 +9230,24 @@
         <v>0.02209956433526773</v>
       </c>
       <c r="AI73">
-        <v>1</v>
+        <v>1983</v>
       </c>
       <c r="AJ73">
+        <v>0</v>
+      </c>
+      <c r="AK73">
+        <v>1</v>
+      </c>
+      <c r="AL73">
+        <v>1</v>
+      </c>
+      <c r="AM73">
         <v>234371.025</v>
       </c>
     </row>
-    <row r="74" spans="1:36">
+    <row r="74" spans="1:39">
       <c r="A74" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B74">
         <v>1</v>
@@ -8680,15 +9346,24 @@
         <v>0.02209956433526773</v>
       </c>
       <c r="AI74">
-        <v>1</v>
+        <v>1983</v>
       </c>
       <c r="AJ74">
+        <v>0</v>
+      </c>
+      <c r="AK74">
+        <v>0</v>
+      </c>
+      <c r="AL74">
+        <v>1</v>
+      </c>
+      <c r="AM74">
         <v>276902.02</v>
       </c>
     </row>
-    <row r="75" spans="1:36">
+    <row r="75" spans="1:39">
       <c r="A75" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -8787,15 +9462,24 @@
         <v>0.02209956433526773</v>
       </c>
       <c r="AI75">
-        <v>1</v>
+        <v>1983</v>
       </c>
       <c r="AJ75">
+        <v>0</v>
+      </c>
+      <c r="AK75">
+        <v>1</v>
+      </c>
+      <c r="AL75">
+        <v>1</v>
+      </c>
+      <c r="AM75">
         <v>140357.385</v>
       </c>
     </row>
-    <row r="76" spans="1:36">
+    <row r="76" spans="1:39">
       <c r="A76" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -8894,15 +9578,24 @@
         <v>0.02209956433526773</v>
       </c>
       <c r="AI76">
-        <v>1</v>
+        <v>1983</v>
       </c>
       <c r="AJ76">
+        <v>0</v>
+      </c>
+      <c r="AK76">
+        <v>0</v>
+      </c>
+      <c r="AL76">
+        <v>1</v>
+      </c>
+      <c r="AM76">
         <v>103898.595</v>
       </c>
     </row>
-    <row r="77" spans="1:36">
+    <row r="77" spans="1:39">
       <c r="A77" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -9001,15 +9694,24 @@
         <v>0.04792890694627538</v>
       </c>
       <c r="AI77">
-        <v>1</v>
+        <v>1983</v>
       </c>
       <c r="AJ77">
+        <v>0</v>
+      </c>
+      <c r="AK77">
+        <v>1</v>
+      </c>
+      <c r="AL77">
+        <v>1</v>
+      </c>
+      <c r="AM77">
         <v>354729.215</v>
       </c>
     </row>
-    <row r="78" spans="1:36">
+    <row r="78" spans="1:39">
       <c r="A78" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -9108,15 +9810,24 @@
         <v>0.04792890694627538</v>
       </c>
       <c r="AI78">
-        <v>1</v>
+        <v>1983</v>
       </c>
       <c r="AJ78">
+        <v>0</v>
+      </c>
+      <c r="AK78">
+        <v>1</v>
+      </c>
+      <c r="AL78">
+        <v>1</v>
+      </c>
+      <c r="AM78">
         <v>56214.94</v>
       </c>
     </row>
-    <row r="79" spans="1:36">
+    <row r="79" spans="1:39">
       <c r="A79" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -9215,15 +9926,24 @@
         <v>0.04792890694627538</v>
       </c>
       <c r="AI79">
-        <v>1</v>
+        <v>1983</v>
       </c>
       <c r="AJ79">
+        <v>0</v>
+      </c>
+      <c r="AK79">
+        <v>1</v>
+      </c>
+      <c r="AL79">
+        <v>1</v>
+      </c>
+      <c r="AM79">
         <v>160295.21</v>
       </c>
     </row>
-    <row r="80" spans="1:36">
+    <row r="80" spans="1:39">
       <c r="A80" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -9322,15 +10042,24 @@
         <v>0.04792890694627538</v>
       </c>
       <c r="AI80">
-        <v>1</v>
+        <v>1983</v>
       </c>
       <c r="AJ80">
+        <v>0</v>
+      </c>
+      <c r="AK80">
+        <v>0</v>
+      </c>
+      <c r="AL80">
+        <v>1</v>
+      </c>
+      <c r="AM80">
         <v>77794.38499999999</v>
       </c>
     </row>
-    <row r="81" spans="1:36">
+    <row r="81" spans="1:39">
       <c r="A81" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -9429,15 +10158,24 @@
         <v>0.04792890694627538</v>
       </c>
       <c r="AI81">
-        <v>1</v>
+        <v>1983</v>
       </c>
       <c r="AJ81">
+        <v>0</v>
+      </c>
+      <c r="AK81">
+        <v>0</v>
+      </c>
+      <c r="AL81">
+        <v>1</v>
+      </c>
+      <c r="AM81">
         <v>53598.99</v>
       </c>
     </row>
-    <row r="82" spans="1:36">
+    <row r="82" spans="1:39">
       <c r="A82" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -9536,15 +10274,24 @@
         <v>0.04792890694627538</v>
       </c>
       <c r="AI82">
-        <v>1</v>
+        <v>1983</v>
       </c>
       <c r="AJ82">
+        <v>0</v>
+      </c>
+      <c r="AK82">
+        <v>0</v>
+      </c>
+      <c r="AL82">
+        <v>1</v>
+      </c>
+      <c r="AM82">
         <v>634350.265</v>
       </c>
     </row>
-    <row r="83" spans="1:36">
+    <row r="83" spans="1:39">
       <c r="A83" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -9643,15 +10390,24 @@
         <v>0.04792890694627538</v>
       </c>
       <c r="AI83">
-        <v>1</v>
+        <v>1983</v>
       </c>
       <c r="AJ83">
+        <v>0</v>
+      </c>
+      <c r="AK83">
+        <v>1</v>
+      </c>
+      <c r="AL83">
+        <v>1</v>
+      </c>
+      <c r="AM83">
         <v>187712.025</v>
       </c>
     </row>
-    <row r="84" spans="1:36">
+    <row r="84" spans="1:39">
       <c r="A84" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -9750,15 +10506,24 @@
         <v>0.04792890694627538</v>
       </c>
       <c r="AI84">
-        <v>1</v>
+        <v>1983</v>
       </c>
       <c r="AJ84">
+        <v>0</v>
+      </c>
+      <c r="AK84">
+        <v>1</v>
+      </c>
+      <c r="AL84">
+        <v>1</v>
+      </c>
+      <c r="AM84">
         <v>234371.025</v>
       </c>
     </row>
-    <row r="85" spans="1:36">
+    <row r="85" spans="1:39">
       <c r="A85" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -9857,15 +10622,24 @@
         <v>0.04792890694627538</v>
       </c>
       <c r="AI85">
-        <v>1</v>
+        <v>1983</v>
       </c>
       <c r="AJ85">
+        <v>0</v>
+      </c>
+      <c r="AK85">
+        <v>0</v>
+      </c>
+      <c r="AL85">
+        <v>1</v>
+      </c>
+      <c r="AM85">
         <v>276902.02</v>
       </c>
     </row>
-    <row r="86" spans="1:36">
+    <row r="86" spans="1:39">
       <c r="A86" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -9964,15 +10738,24 @@
         <v>0.04792890694627538</v>
       </c>
       <c r="AI86">
-        <v>1</v>
+        <v>1983</v>
       </c>
       <c r="AJ86">
+        <v>0</v>
+      </c>
+      <c r="AK86">
+        <v>1</v>
+      </c>
+      <c r="AL86">
+        <v>1</v>
+      </c>
+      <c r="AM86">
         <v>140357.385</v>
       </c>
     </row>
-    <row r="87" spans="1:36">
+    <row r="87" spans="1:39">
       <c r="A87" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -10071,15 +10854,24 @@
         <v>0.04792890694627538</v>
       </c>
       <c r="AI87">
-        <v>1</v>
+        <v>1983</v>
       </c>
       <c r="AJ87">
+        <v>0</v>
+      </c>
+      <c r="AK87">
+        <v>0</v>
+      </c>
+      <c r="AL87">
+        <v>1</v>
+      </c>
+      <c r="AM87">
         <v>103898.595</v>
       </c>
     </row>
-    <row r="88" spans="1:36">
+    <row r="88" spans="1:39">
       <c r="A88" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -10178,21 +10970,30 @@
         <v>0.03004024640768311</v>
       </c>
       <c r="AI88">
-        <v>1</v>
+        <v>1983</v>
       </c>
       <c r="AJ88">
+        <v>0</v>
+      </c>
+      <c r="AK88">
+        <v>1</v>
+      </c>
+      <c r="AL88">
+        <v>1</v>
+      </c>
+      <c r="AM88">
         <v>712526</v>
       </c>
     </row>
-    <row r="89" spans="1:36">
+    <row r="89" spans="1:39">
       <c r="A89" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B89">
         <v>0</v>
       </c>
       <c r="C89" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D89">
         <v>0</v>
@@ -10285,15 +11086,24 @@
         <v>0.03004024640768311</v>
       </c>
       <c r="AI89">
-        <v>1</v>
+        <v>1983</v>
       </c>
       <c r="AJ89">
+        <v>0</v>
+      </c>
+      <c r="AK89">
+        <v>1</v>
+      </c>
+      <c r="AL89">
+        <v>1</v>
+      </c>
+      <c r="AM89">
         <v>200580</v>
       </c>
     </row>
-    <row r="90" spans="1:36">
+    <row r="90" spans="1:39">
       <c r="A90" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -10392,15 +11202,24 @@
         <v>0.03004024640768311</v>
       </c>
       <c r="AI90">
-        <v>1</v>
+        <v>1983</v>
       </c>
       <c r="AJ90">
+        <v>0</v>
+      </c>
+      <c r="AK90">
+        <v>1</v>
+      </c>
+      <c r="AL90">
+        <v>1</v>
+      </c>
+      <c r="AM90">
         <v>178647</v>
       </c>
     </row>
-    <row r="91" spans="1:36">
+    <row r="91" spans="1:39">
       <c r="A91" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -10499,15 +11318,24 @@
         <v>0.03004024640768311</v>
       </c>
       <c r="AI91">
-        <v>1</v>
+        <v>1983</v>
       </c>
       <c r="AJ91">
+        <v>0</v>
+      </c>
+      <c r="AK91">
+        <v>0</v>
+      </c>
+      <c r="AL91">
+        <v>1</v>
+      </c>
+      <c r="AM91">
         <v>99372</v>
       </c>
     </row>
-    <row r="92" spans="1:36">
+    <row r="92" spans="1:39">
       <c r="A92" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -10606,15 +11434,24 @@
         <v>0.03004024640768311</v>
       </c>
       <c r="AI92">
-        <v>1</v>
+        <v>1983</v>
       </c>
       <c r="AJ92">
+        <v>0</v>
+      </c>
+      <c r="AK92">
+        <v>0</v>
+      </c>
+      <c r="AL92">
+        <v>1</v>
+      </c>
+      <c r="AM92">
         <v>148690</v>
       </c>
     </row>
-    <row r="93" spans="1:36">
+    <row r="93" spans="1:39">
       <c r="A93" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B93">
         <v>1</v>
@@ -10713,15 +11550,24 @@
         <v>0.03004024640768311</v>
       </c>
       <c r="AI93">
-        <v>1</v>
+        <v>1983</v>
       </c>
       <c r="AJ93">
+        <v>0</v>
+      </c>
+      <c r="AK93">
+        <v>0</v>
+      </c>
+      <c r="AL93">
+        <v>1</v>
+      </c>
+      <c r="AM93">
         <v>874256</v>
       </c>
     </row>
-    <row r="94" spans="1:36">
+    <row r="94" spans="1:39">
       <c r="A94" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -10820,15 +11666,24 @@
         <v>0.03004024640768311</v>
       </c>
       <c r="AI94">
-        <v>1</v>
+        <v>1983</v>
       </c>
       <c r="AJ94">
+        <v>0</v>
+      </c>
+      <c r="AK94">
+        <v>1</v>
+      </c>
+      <c r="AL94">
+        <v>1</v>
+      </c>
+      <c r="AM94">
         <v>381189</v>
       </c>
     </row>
-    <row r="95" spans="1:36">
+    <row r="95" spans="1:39">
       <c r="A95" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -10927,15 +11782,24 @@
         <v>0.03004024640768311</v>
       </c>
       <c r="AI95">
-        <v>1</v>
+        <v>1983</v>
       </c>
       <c r="AJ95">
+        <v>0</v>
+      </c>
+      <c r="AK95">
+        <v>1</v>
+      </c>
+      <c r="AL95">
+        <v>1</v>
+      </c>
+      <c r="AM95">
         <v>27685</v>
       </c>
     </row>
-    <row r="96" spans="1:36">
+    <row r="96" spans="1:39">
       <c r="A96" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B96">
         <v>1</v>
@@ -11034,15 +11898,24 @@
         <v>0.03004024640768311</v>
       </c>
       <c r="AI96">
-        <v>1</v>
+        <v>1983</v>
       </c>
       <c r="AJ96">
+        <v>0</v>
+      </c>
+      <c r="AK96">
+        <v>0</v>
+      </c>
+      <c r="AL96">
+        <v>1</v>
+      </c>
+      <c r="AM96">
         <v>543875</v>
       </c>
     </row>
-    <row r="97" spans="1:36">
+    <row r="97" spans="1:39">
       <c r="A97" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -11141,15 +12014,24 @@
         <v>0.03004024640768311</v>
       </c>
       <c r="AI97">
-        <v>1</v>
+        <v>1983</v>
       </c>
       <c r="AJ97">
+        <v>0</v>
+      </c>
+      <c r="AK97">
+        <v>1</v>
+      </c>
+      <c r="AL97">
+        <v>1</v>
+      </c>
+      <c r="AM97">
         <v>334787</v>
       </c>
     </row>
-    <row r="98" spans="1:36">
+    <row r="98" spans="1:39">
       <c r="A98" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B98">
         <v>0</v>
@@ -11248,9 +12130,18 @@
         <v>0.03004024640768311</v>
       </c>
       <c r="AI98">
-        <v>1</v>
+        <v>1983</v>
       </c>
       <c r="AJ98">
+        <v>0</v>
+      </c>
+      <c r="AK98">
+        <v>0</v>
+      </c>
+      <c r="AL98">
+        <v>1</v>
+      </c>
+      <c r="AM98">
         <v>350303</v>
       </c>
     </row>

--- a/output/mpdl.xlsx
+++ b/output/mpdl.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="139">
   <si>
     <t>Pais-Año</t>
   </si>
@@ -61,10 +61,10 @@
     <t>Private_Funds_Cuotas</t>
   </si>
   <si>
-    <t>Public_Funds_Donations</t>
-  </si>
-  <si>
-    <t>Public_Funds_Companies</t>
+    <t>Private_Funds_Donations</t>
+  </si>
+  <si>
+    <t>Private_Funds_Companies</t>
   </si>
   <si>
     <t>Fondos_Privados_Venta</t>
@@ -118,6 +118,9 @@
     <t>Proporcion_Fondos_Privados</t>
   </si>
   <si>
+    <t>Proporcion_Fondos_MAE</t>
+  </si>
+  <si>
     <t>Anyo_ONG</t>
   </si>
   <si>
@@ -125,6 +128,9 @@
   </si>
   <si>
     <t>Colony</t>
+  </si>
+  <si>
+    <t>Delegacion</t>
   </si>
   <si>
     <t>Visitado</t>
@@ -765,7 +771,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM98"/>
+  <dimension ref="A1:AO98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -774,7 +780,7 @@
     <col min="1" max="1" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39">
+    <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -892,10 +898,16 @@
       <c r="AM1" s="1" t="s">
         <v>38</v>
       </c>
+      <c r="AN1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="2" spans="1:39">
+    <row r="2" spans="1:41">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -994,24 +1006,30 @@
         <v>0.10505486158613</v>
       </c>
       <c r="AI2">
+        <v>0.5087111215159782</v>
+      </c>
+      <c r="AJ2">
         <v>1983</v>
       </c>
-      <c r="AJ2">
-        <v>0</v>
-      </c>
       <c r="AK2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL2">
         <v>1</v>
       </c>
       <c r="AM2">
+        <v>1</v>
+      </c>
+      <c r="AN2">
+        <v>1</v>
+      </c>
+      <c r="AO2">
         <v>126964</v>
       </c>
     </row>
-    <row r="3" spans="1:39">
+    <row r="3" spans="1:41">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1110,24 +1128,30 @@
         <v>0.10505486158613</v>
       </c>
       <c r="AI3">
+        <v>0.5087111215159782</v>
+      </c>
+      <c r="AJ3">
         <v>1983</v>
       </c>
-      <c r="AJ3">
-        <v>0</v>
-      </c>
       <c r="AK3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL3">
         <v>1</v>
       </c>
       <c r="AM3">
+        <v>1</v>
+      </c>
+      <c r="AN3">
+        <v>1</v>
+      </c>
+      <c r="AO3">
         <v>240144</v>
       </c>
     </row>
-    <row r="4" spans="1:39">
+    <row r="4" spans="1:41">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1226,24 +1250,30 @@
         <v>0.10505486158613</v>
       </c>
       <c r="AI4">
+        <v>0.5087111215159782</v>
+      </c>
+      <c r="AJ4">
         <v>1983</v>
       </c>
-      <c r="AJ4">
-        <v>0</v>
-      </c>
       <c r="AK4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL4">
         <v>1</v>
       </c>
       <c r="AM4">
+        <v>1</v>
+      </c>
+      <c r="AN4">
+        <v>1</v>
+      </c>
+      <c r="AO4">
         <v>35343</v>
       </c>
     </row>
-    <row r="5" spans="1:39">
+    <row r="5" spans="1:41">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1342,24 +1372,30 @@
         <v>0.10505486158613</v>
       </c>
       <c r="AI5">
+        <v>0.5087111215159782</v>
+      </c>
+      <c r="AJ5">
         <v>1983</v>
       </c>
-      <c r="AJ5">
-        <v>0</v>
-      </c>
       <c r="AK5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL5">
         <v>1</v>
       </c>
       <c r="AM5">
+        <v>1</v>
+      </c>
+      <c r="AN5">
+        <v>1</v>
+      </c>
+      <c r="AO5">
         <v>144440</v>
       </c>
     </row>
-    <row r="6" spans="1:39">
+    <row r="6" spans="1:41">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1458,24 +1494,30 @@
         <v>0.10505486158613</v>
       </c>
       <c r="AI6">
+        <v>0.5087111215159782</v>
+      </c>
+      <c r="AJ6">
         <v>1983</v>
       </c>
-      <c r="AJ6">
-        <v>0</v>
-      </c>
       <c r="AK6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL6">
         <v>1</v>
       </c>
       <c r="AM6">
+        <v>1</v>
+      </c>
+      <c r="AN6">
+        <v>1</v>
+      </c>
+      <c r="AO6">
         <v>3138</v>
       </c>
     </row>
-    <row r="7" spans="1:39">
+    <row r="7" spans="1:41">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1574,24 +1616,30 @@
         <v>0.10505486158613</v>
       </c>
       <c r="AI7">
+        <v>0.5087111215159782</v>
+      </c>
+      <c r="AJ7">
         <v>1983</v>
       </c>
-      <c r="AJ7">
-        <v>0</v>
-      </c>
       <c r="AK7">
         <v>0</v>
       </c>
       <c r="AL7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM7">
+        <v>1</v>
+      </c>
+      <c r="AN7">
+        <v>1</v>
+      </c>
+      <c r="AO7">
         <v>131046</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
+    <row r="8" spans="1:41">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1690,24 +1738,30 @@
         <v>0.10505486158613</v>
       </c>
       <c r="AI8">
+        <v>0.5087111215159782</v>
+      </c>
+      <c r="AJ8">
         <v>1983</v>
       </c>
-      <c r="AJ8">
-        <v>0</v>
-      </c>
       <c r="AK8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL8">
         <v>1</v>
       </c>
       <c r="AM8">
+        <v>1</v>
+      </c>
+      <c r="AN8">
+        <v>1</v>
+      </c>
+      <c r="AO8">
         <v>181182</v>
       </c>
     </row>
-    <row r="9" spans="1:39">
+    <row r="9" spans="1:41">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1806,24 +1860,30 @@
         <v>0.10505486158613</v>
       </c>
       <c r="AI9">
+        <v>0.5087111215159782</v>
+      </c>
+      <c r="AJ9">
         <v>1983</v>
       </c>
-      <c r="AJ9">
-        <v>0</v>
-      </c>
       <c r="AK9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL9">
         <v>1</v>
       </c>
       <c r="AM9">
+        <v>1</v>
+      </c>
+      <c r="AN9">
+        <v>1</v>
+      </c>
+      <c r="AO9">
         <v>132846</v>
       </c>
     </row>
-    <row r="10" spans="1:39">
+    <row r="10" spans="1:41">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1922,24 +1982,30 @@
         <v>0.10505486158613</v>
       </c>
       <c r="AI10">
+        <v>0.5087111215159782</v>
+      </c>
+      <c r="AJ10">
         <v>1983</v>
       </c>
-      <c r="AJ10">
-        <v>0</v>
-      </c>
       <c r="AK10">
         <v>0</v>
       </c>
       <c r="AL10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM10">
+        <v>1</v>
+      </c>
+      <c r="AN10">
+        <v>1</v>
+      </c>
+      <c r="AO10">
         <v>767420</v>
       </c>
     </row>
-    <row r="11" spans="1:39">
+    <row r="11" spans="1:41">
       <c r="A11" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -2038,24 +2104,30 @@
         <v>0.10505486158613</v>
       </c>
       <c r="AI11">
+        <v>0.5087111215159782</v>
+      </c>
+      <c r="AJ11">
         <v>1983</v>
       </c>
-      <c r="AJ11">
-        <v>0</v>
-      </c>
       <c r="AK11">
         <v>0</v>
       </c>
       <c r="AL11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM11">
+        <v>1</v>
+      </c>
+      <c r="AN11">
+        <v>1</v>
+      </c>
+      <c r="AO11">
         <v>102666</v>
       </c>
     </row>
-    <row r="12" spans="1:39">
+    <row r="12" spans="1:41">
       <c r="A12" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -2154,24 +2226,30 @@
         <v>0.10505486158613</v>
       </c>
       <c r="AI12">
+        <v>0.5087111215159782</v>
+      </c>
+      <c r="AJ12">
         <v>1983</v>
       </c>
-      <c r="AJ12">
-        <v>0</v>
-      </c>
       <c r="AK12">
         <v>0</v>
       </c>
       <c r="AL12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM12">
+        <v>1</v>
+      </c>
+      <c r="AN12">
+        <v>1</v>
+      </c>
+      <c r="AO12">
         <v>40376</v>
       </c>
     </row>
-    <row r="13" spans="1:39">
+    <row r="13" spans="1:41">
       <c r="A13" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -2270,24 +2348,30 @@
         <v>0.10505486158613</v>
       </c>
       <c r="AI13">
+        <v>0.5087111215159782</v>
+      </c>
+      <c r="AJ13">
         <v>1983</v>
       </c>
-      <c r="AJ13">
-        <v>0</v>
-      </c>
       <c r="AK13">
         <v>0</v>
       </c>
       <c r="AL13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM13">
+        <v>1</v>
+      </c>
+      <c r="AN13">
+        <v>1</v>
+      </c>
+      <c r="AO13">
         <v>286584</v>
       </c>
     </row>
-    <row r="14" spans="1:39">
+    <row r="14" spans="1:41">
       <c r="A14" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -2344,7 +2428,7 @@
         <v>0</v>
       </c>
       <c r="T14">
-        <v>323672</v>
+        <v>350672</v>
       </c>
       <c r="U14">
         <v>25</v>
@@ -2380,30 +2464,36 @@
         <v>15684392</v>
       </c>
       <c r="AG14">
-        <v>7093675</v>
+        <v>7120675</v>
       </c>
       <c r="AH14">
-        <v>0.04562825333836128</v>
+        <v>0.04924701661008261</v>
       </c>
       <c r="AI14">
+        <v>0.551807939556292</v>
+      </c>
+      <c r="AJ14">
         <v>1983</v>
       </c>
-      <c r="AJ14">
-        <v>0</v>
-      </c>
       <c r="AK14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL14">
         <v>1</v>
       </c>
       <c r="AM14">
+        <v>1</v>
+      </c>
+      <c r="AN14">
+        <v>1</v>
+      </c>
+      <c r="AO14">
         <v>292800</v>
       </c>
     </row>
-    <row r="15" spans="1:39">
+    <row r="15" spans="1:41">
       <c r="A15" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -2460,7 +2550,7 @@
         <v>0</v>
       </c>
       <c r="T15">
-        <v>323672</v>
+        <v>350672</v>
       </c>
       <c r="U15">
         <v>25</v>
@@ -2496,30 +2586,36 @@
         <v>4844720</v>
       </c>
       <c r="AG15">
-        <v>7093675</v>
+        <v>7120675</v>
       </c>
       <c r="AH15">
-        <v>0.04562825333836128</v>
+        <v>0.04924701661008261</v>
       </c>
       <c r="AI15">
+        <v>0.551807939556292</v>
+      </c>
+      <c r="AJ15">
         <v>1983</v>
       </c>
-      <c r="AJ15">
-        <v>0</v>
-      </c>
       <c r="AK15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL15">
         <v>1</v>
       </c>
       <c r="AM15">
+        <v>1</v>
+      </c>
+      <c r="AN15">
+        <v>1</v>
+      </c>
+      <c r="AO15">
         <v>338686</v>
       </c>
     </row>
-    <row r="16" spans="1:39">
+    <row r="16" spans="1:41">
       <c r="A16" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -2576,7 +2672,7 @@
         <v>0</v>
       </c>
       <c r="T16">
-        <v>323672</v>
+        <v>350672</v>
       </c>
       <c r="U16">
         <v>25</v>
@@ -2612,30 +2708,36 @@
         <v>7781510</v>
       </c>
       <c r="AG16">
-        <v>7093675</v>
+        <v>7120675</v>
       </c>
       <c r="AH16">
-        <v>0.04562825333836128</v>
+        <v>0.04924701661008261</v>
       </c>
       <c r="AI16">
+        <v>0.551807939556292</v>
+      </c>
+      <c r="AJ16">
         <v>1983</v>
       </c>
-      <c r="AJ16">
-        <v>0</v>
-      </c>
       <c r="AK16">
         <v>0</v>
       </c>
       <c r="AL16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM16">
+        <v>1</v>
+      </c>
+      <c r="AN16">
+        <v>1</v>
+      </c>
+      <c r="AO16">
         <v>292800</v>
       </c>
     </row>
-    <row r="17" spans="1:39">
+    <row r="17" spans="1:41">
       <c r="A17" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -2692,7 +2794,7 @@
         <v>0</v>
       </c>
       <c r="T17">
-        <v>323672</v>
+        <v>350672</v>
       </c>
       <c r="U17">
         <v>25</v>
@@ -2728,30 +2830,36 @@
         <v>3518583</v>
       </c>
       <c r="AG17">
-        <v>7093675</v>
+        <v>7120675</v>
       </c>
       <c r="AH17">
-        <v>0.04562825333836128</v>
+        <v>0.04924701661008261</v>
       </c>
       <c r="AI17">
+        <v>0.551807939556292</v>
+      </c>
+      <c r="AJ17">
         <v>1983</v>
       </c>
-      <c r="AJ17">
-        <v>0</v>
-      </c>
       <c r="AK17">
         <v>0</v>
       </c>
       <c r="AL17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM17">
+        <v>1</v>
+      </c>
+      <c r="AN17">
+        <v>1</v>
+      </c>
+      <c r="AO17">
         <v>292800</v>
       </c>
     </row>
-    <row r="18" spans="1:39">
+    <row r="18" spans="1:41">
       <c r="A18" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -2808,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="T18">
-        <v>323672</v>
+        <v>350672</v>
       </c>
       <c r="U18">
         <v>25</v>
@@ -2844,30 +2952,36 @@
         <v>5136929</v>
       </c>
       <c r="AG18">
-        <v>7093675</v>
+        <v>7120675</v>
       </c>
       <c r="AH18">
-        <v>0.04562825333836128</v>
+        <v>0.04924701661008261</v>
       </c>
       <c r="AI18">
+        <v>0.551807939556292</v>
+      </c>
+      <c r="AJ18">
         <v>1983</v>
       </c>
-      <c r="AJ18">
-        <v>0</v>
-      </c>
       <c r="AK18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL18">
         <v>1</v>
       </c>
       <c r="AM18">
+        <v>1</v>
+      </c>
+      <c r="AN18">
+        <v>1</v>
+      </c>
+      <c r="AO18">
         <v>178473</v>
       </c>
     </row>
-    <row r="19" spans="1:39">
+    <row r="19" spans="1:41">
       <c r="A19" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -2924,7 +3038,7 @@
         <v>0</v>
       </c>
       <c r="T19">
-        <v>323672</v>
+        <v>350672</v>
       </c>
       <c r="U19">
         <v>25</v>
@@ -2960,30 +3074,36 @@
         <v>14532818.83333333</v>
       </c>
       <c r="AG19">
-        <v>7093675</v>
+        <v>7120675</v>
       </c>
       <c r="AH19">
-        <v>0.04562825333836128</v>
+        <v>0.04924701661008261</v>
       </c>
       <c r="AI19">
+        <v>0.551807939556292</v>
+      </c>
+      <c r="AJ19">
         <v>1983</v>
       </c>
-      <c r="AJ19">
-        <v>0</v>
-      </c>
       <c r="AK19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL19">
         <v>1</v>
       </c>
       <c r="AM19">
+        <v>1</v>
+      </c>
+      <c r="AN19">
+        <v>1</v>
+      </c>
+      <c r="AO19">
         <v>518207</v>
       </c>
     </row>
-    <row r="20" spans="1:39">
+    <row r="20" spans="1:41">
       <c r="A20" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -3040,7 +3160,7 @@
         <v>0</v>
       </c>
       <c r="T20">
-        <v>323672</v>
+        <v>350672</v>
       </c>
       <c r="U20">
         <v>25</v>
@@ -3076,30 +3196,36 @@
         <v>12175312</v>
       </c>
       <c r="AG20">
-        <v>7093675</v>
+        <v>7120675</v>
       </c>
       <c r="AH20">
-        <v>0.04562825333836128</v>
+        <v>0.04924701661008261</v>
       </c>
       <c r="AI20">
+        <v>0.551807939556292</v>
+      </c>
+      <c r="AJ20">
         <v>1983</v>
       </c>
-      <c r="AJ20">
-        <v>0</v>
-      </c>
       <c r="AK20">
         <v>0</v>
       </c>
       <c r="AL20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM20">
+        <v>0</v>
+      </c>
+      <c r="AN20">
+        <v>1</v>
+      </c>
+      <c r="AO20">
         <v>11151</v>
       </c>
     </row>
-    <row r="21" spans="1:39">
+    <row r="21" spans="1:41">
       <c r="A21" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -3156,7 +3282,7 @@
         <v>0</v>
       </c>
       <c r="T21">
-        <v>323672</v>
+        <v>350672</v>
       </c>
       <c r="U21">
         <v>25</v>
@@ -3192,30 +3318,36 @@
         <v>18320809.5</v>
       </c>
       <c r="AG21">
-        <v>7093675</v>
+        <v>7120675</v>
       </c>
       <c r="AH21">
-        <v>0.04562825333836128</v>
+        <v>0.04924701661008261</v>
       </c>
       <c r="AI21">
+        <v>0.551807939556292</v>
+      </c>
+      <c r="AJ21">
         <v>1983</v>
       </c>
-      <c r="AJ21">
-        <v>0</v>
-      </c>
       <c r="AK21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL21">
         <v>1</v>
       </c>
       <c r="AM21">
+        <v>1</v>
+      </c>
+      <c r="AN21">
+        <v>1</v>
+      </c>
+      <c r="AO21">
         <v>284121</v>
       </c>
     </row>
-    <row r="22" spans="1:39">
+    <row r="22" spans="1:41">
       <c r="A22" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -3272,7 +3404,7 @@
         <v>0</v>
       </c>
       <c r="T22">
-        <v>323672</v>
+        <v>350672</v>
       </c>
       <c r="U22">
         <v>25</v>
@@ -3308,30 +3440,36 @@
         <v>13056447</v>
       </c>
       <c r="AG22">
-        <v>7093675</v>
+        <v>7120675</v>
       </c>
       <c r="AH22">
-        <v>0.04562825333836128</v>
+        <v>0.04924701661008261</v>
       </c>
       <c r="AI22">
+        <v>0.551807939556292</v>
+      </c>
+      <c r="AJ22">
         <v>1983</v>
       </c>
-      <c r="AJ22">
-        <v>0</v>
-      </c>
       <c r="AK22">
         <v>0</v>
       </c>
       <c r="AL22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM22">
+        <v>0</v>
+      </c>
+      <c r="AN22">
+        <v>1</v>
+      </c>
+      <c r="AO22">
         <v>328089</v>
       </c>
     </row>
-    <row r="23" spans="1:39">
+    <row r="23" spans="1:41">
       <c r="A23" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -3388,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="T23">
-        <v>323672</v>
+        <v>350672</v>
       </c>
       <c r="U23">
         <v>25</v>
@@ -3424,30 +3562,36 @@
         <v>25548911</v>
       </c>
       <c r="AG23">
-        <v>7093675</v>
+        <v>7120675</v>
       </c>
       <c r="AH23">
-        <v>0.04562825333836128</v>
+        <v>0.04924701661008261</v>
       </c>
       <c r="AI23">
+        <v>0.551807939556292</v>
+      </c>
+      <c r="AJ23">
         <v>1983</v>
       </c>
-      <c r="AJ23">
-        <v>0</v>
-      </c>
       <c r="AK23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL23">
         <v>1</v>
       </c>
       <c r="AM23">
+        <v>1</v>
+      </c>
+      <c r="AN23">
+        <v>1</v>
+      </c>
+      <c r="AO23">
         <v>1021337</v>
       </c>
     </row>
-    <row r="24" spans="1:39">
+    <row r="24" spans="1:41">
       <c r="A24" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -3504,7 +3648,7 @@
         <v>0</v>
       </c>
       <c r="T24">
-        <v>323672</v>
+        <v>350672</v>
       </c>
       <c r="U24">
         <v>25</v>
@@ -3540,30 +3684,36 @@
         <v>27999397</v>
       </c>
       <c r="AG24">
-        <v>7093675</v>
+        <v>7120675</v>
       </c>
       <c r="AH24">
-        <v>0.04562825333836128</v>
+        <v>0.04924701661008261</v>
       </c>
       <c r="AI24">
+        <v>0.551807939556292</v>
+      </c>
+      <c r="AJ24">
         <v>1983</v>
       </c>
-      <c r="AJ24">
-        <v>0</v>
-      </c>
       <c r="AK24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL24">
         <v>1</v>
       </c>
       <c r="AM24">
+        <v>1</v>
+      </c>
+      <c r="AN24">
+        <v>1</v>
+      </c>
+      <c r="AO24">
         <v>184681</v>
       </c>
     </row>
-    <row r="25" spans="1:39">
+    <row r="25" spans="1:41">
       <c r="A25" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -3620,7 +3770,7 @@
         <v>0</v>
       </c>
       <c r="T25">
-        <v>323672</v>
+        <v>350672</v>
       </c>
       <c r="U25">
         <v>25</v>
@@ -3656,30 +3806,36 @@
         <v>0</v>
       </c>
       <c r="AG25">
-        <v>7093675</v>
+        <v>7120675</v>
       </c>
       <c r="AH25">
-        <v>0.04562825333836128</v>
+        <v>0.04924701661008261</v>
       </c>
       <c r="AI25">
+        <v>0.551807939556292</v>
+      </c>
+      <c r="AJ25">
         <v>1983</v>
       </c>
-      <c r="AJ25">
-        <v>0</v>
-      </c>
       <c r="AK25">
         <v>0</v>
       </c>
       <c r="AL25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM25">
+        <v>0</v>
+      </c>
+      <c r="AN25">
+        <v>1</v>
+      </c>
+      <c r="AO25">
         <v>72116</v>
       </c>
     </row>
-    <row r="26" spans="1:39">
+    <row r="26" spans="1:41">
       <c r="A26" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -3736,7 +3892,7 @@
         <v>0</v>
       </c>
       <c r="T26">
-        <v>323672</v>
+        <v>350672</v>
       </c>
       <c r="U26">
         <v>25</v>
@@ -3772,30 +3928,36 @@
         <v>0</v>
       </c>
       <c r="AG26">
-        <v>7093675</v>
+        <v>7120675</v>
       </c>
       <c r="AH26">
-        <v>0.04562825333836128</v>
+        <v>0.04924701661008261</v>
       </c>
       <c r="AI26">
+        <v>0.551807939556292</v>
+      </c>
+      <c r="AJ26">
         <v>1983</v>
       </c>
-      <c r="AJ26">
-        <v>0</v>
-      </c>
       <c r="AK26">
         <v>0</v>
       </c>
       <c r="AL26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM26">
+        <v>0</v>
+      </c>
+      <c r="AN26">
+        <v>1</v>
+      </c>
+      <c r="AO26">
         <v>72116</v>
       </c>
     </row>
-    <row r="27" spans="1:39">
+    <row r="27" spans="1:41">
       <c r="A27" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -3852,7 +4014,7 @@
         <v>0</v>
       </c>
       <c r="T27">
-        <v>323672</v>
+        <v>350672</v>
       </c>
       <c r="U27">
         <v>25</v>
@@ -3888,30 +4050,36 @@
         <v>15091265.66666667</v>
       </c>
       <c r="AG27">
-        <v>7093675</v>
+        <v>7120675</v>
       </c>
       <c r="AH27">
-        <v>0.04562825333836128</v>
+        <v>0.04924701661008261</v>
       </c>
       <c r="AI27">
+        <v>0.551807939556292</v>
+      </c>
+      <c r="AJ27">
         <v>1983</v>
       </c>
-      <c r="AJ27">
-        <v>0</v>
-      </c>
       <c r="AK27">
         <v>0</v>
       </c>
       <c r="AL27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM27">
+        <v>1</v>
+      </c>
+      <c r="AN27">
+        <v>1</v>
+      </c>
+      <c r="AO27">
         <v>647715</v>
       </c>
     </row>
-    <row r="28" spans="1:39">
+    <row r="28" spans="1:41">
       <c r="A28" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -3968,7 +4136,7 @@
         <v>0</v>
       </c>
       <c r="T28">
-        <v>323672</v>
+        <v>350672</v>
       </c>
       <c r="U28">
         <v>25</v>
@@ -4004,30 +4172,36 @@
         <v>6020850.666666667</v>
       </c>
       <c r="AG28">
-        <v>7093675</v>
+        <v>7120675</v>
       </c>
       <c r="AH28">
-        <v>0.04562825333836128</v>
+        <v>0.04924701661008261</v>
       </c>
       <c r="AI28">
+        <v>0.551807939556292</v>
+      </c>
+      <c r="AJ28">
         <v>1983</v>
       </c>
-      <c r="AJ28">
-        <v>0</v>
-      </c>
       <c r="AK28">
         <v>0</v>
       </c>
       <c r="AL28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM28">
+        <v>1</v>
+      </c>
+      <c r="AN28">
+        <v>1</v>
+      </c>
+      <c r="AO28">
         <v>565375</v>
       </c>
     </row>
-    <row r="29" spans="1:39">
+    <row r="29" spans="1:41">
       <c r="A29" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -4084,7 +4258,7 @@
         <v>0</v>
       </c>
       <c r="T29">
-        <v>323672</v>
+        <v>350672</v>
       </c>
       <c r="U29">
         <v>25</v>
@@ -4120,30 +4294,36 @@
         <v>5038666.666666667</v>
       </c>
       <c r="AG29">
-        <v>7093675</v>
+        <v>7120675</v>
       </c>
       <c r="AH29">
-        <v>0.04562825333836128</v>
+        <v>0.04924701661008261</v>
       </c>
       <c r="AI29">
+        <v>0.551807939556292</v>
+      </c>
+      <c r="AJ29">
         <v>1983</v>
       </c>
-      <c r="AJ29">
-        <v>0</v>
-      </c>
       <c r="AK29">
         <v>0</v>
       </c>
       <c r="AL29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM29">
+        <v>1</v>
+      </c>
+      <c r="AN29">
+        <v>1</v>
+      </c>
+      <c r="AO29">
         <v>273672.6666666667</v>
       </c>
     </row>
-    <row r="30" spans="1:39">
+    <row r="30" spans="1:41">
       <c r="A30" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -4200,7 +4380,7 @@
         <v>0</v>
       </c>
       <c r="T30">
-        <v>836914</v>
+        <v>850249</v>
       </c>
       <c r="U30">
         <v>33</v>
@@ -4236,30 +4416,36 @@
         <v>1695725</v>
       </c>
       <c r="AG30">
-        <v>7510827</v>
+        <v>7524162</v>
       </c>
       <c r="AH30">
-        <v>0.1114276763397692</v>
+        <v>0.1130024845291741</v>
       </c>
       <c r="AI30">
+        <v>0.6341774672049858</v>
+      </c>
+      <c r="AJ30">
         <v>1983</v>
       </c>
-      <c r="AJ30">
-        <v>0</v>
-      </c>
       <c r="AK30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL30">
         <v>1</v>
       </c>
       <c r="AM30">
+        <v>1</v>
+      </c>
+      <c r="AN30">
+        <v>1</v>
+      </c>
+      <c r="AO30">
         <v>707824</v>
       </c>
     </row>
-    <row r="31" spans="1:39">
+    <row r="31" spans="1:41">
       <c r="A31" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -4316,7 +4502,7 @@
         <v>0</v>
       </c>
       <c r="T31">
-        <v>836914</v>
+        <v>850249</v>
       </c>
       <c r="U31">
         <v>33</v>
@@ -4352,30 +4538,36 @@
         <v>1851881</v>
       </c>
       <c r="AG31">
-        <v>7510827</v>
+        <v>7524162</v>
       </c>
       <c r="AH31">
-        <v>0.1114276763397692</v>
+        <v>0.1130024845291741</v>
       </c>
       <c r="AI31">
+        <v>0.6341774672049858</v>
+      </c>
+      <c r="AJ31">
         <v>1983</v>
       </c>
-      <c r="AJ31">
-        <v>0</v>
-      </c>
       <c r="AK31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL31">
         <v>1</v>
       </c>
       <c r="AM31">
+        <v>1</v>
+      </c>
+      <c r="AN31">
+        <v>1</v>
+      </c>
+      <c r="AO31">
         <v>619546</v>
       </c>
     </row>
-    <row r="32" spans="1:39">
+    <row r="32" spans="1:41">
       <c r="A32" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -4432,7 +4624,7 @@
         <v>0</v>
       </c>
       <c r="T32">
-        <v>836914</v>
+        <v>850249</v>
       </c>
       <c r="U32">
         <v>33</v>
@@ -4468,30 +4660,36 @@
         <v>905668</v>
       </c>
       <c r="AG32">
-        <v>7510827</v>
+        <v>7524162</v>
       </c>
       <c r="AH32">
-        <v>0.1114276763397692</v>
+        <v>0.1130024845291741</v>
       </c>
       <c r="AI32">
+        <v>0.6341774672049858</v>
+      </c>
+      <c r="AJ32">
         <v>1983</v>
       </c>
-      <c r="AJ32">
-        <v>0</v>
-      </c>
       <c r="AK32">
         <v>0</v>
       </c>
       <c r="AL32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM32">
+        <v>1</v>
+      </c>
+      <c r="AN32">
+        <v>1</v>
+      </c>
+      <c r="AO32">
         <v>1851443</v>
       </c>
     </row>
-    <row r="33" spans="1:39">
+    <row r="33" spans="1:41">
       <c r="A33" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -4548,7 +4746,7 @@
         <v>0</v>
       </c>
       <c r="T33">
-        <v>836914</v>
+        <v>850249</v>
       </c>
       <c r="U33">
         <v>33</v>
@@ -4584,30 +4782,36 @@
         <v>1494969</v>
       </c>
       <c r="AG33">
-        <v>7510827</v>
+        <v>7524162</v>
       </c>
       <c r="AH33">
-        <v>0.1114276763397692</v>
+        <v>0.1130024845291741</v>
       </c>
       <c r="AI33">
+        <v>0.6341774672049858</v>
+      </c>
+      <c r="AJ33">
         <v>1983</v>
       </c>
-      <c r="AJ33">
-        <v>0</v>
-      </c>
       <c r="AK33">
         <v>0</v>
       </c>
       <c r="AL33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM33">
+        <v>1</v>
+      </c>
+      <c r="AN33">
+        <v>1</v>
+      </c>
+      <c r="AO33">
         <v>375693</v>
       </c>
     </row>
-    <row r="34" spans="1:39">
+    <row r="34" spans="1:41">
       <c r="A34" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -4664,7 +4868,7 @@
         <v>0</v>
       </c>
       <c r="T34">
-        <v>836914</v>
+        <v>850249</v>
       </c>
       <c r="U34">
         <v>33</v>
@@ -4700,30 +4904,36 @@
         <v>1498796</v>
       </c>
       <c r="AG34">
-        <v>7510827</v>
+        <v>7524162</v>
       </c>
       <c r="AH34">
-        <v>0.1114276763397692</v>
+        <v>0.1130024845291741</v>
       </c>
       <c r="AI34">
+        <v>0.6341774672049858</v>
+      </c>
+      <c r="AJ34">
         <v>1983</v>
       </c>
-      <c r="AJ34">
-        <v>0</v>
-      </c>
       <c r="AK34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL34">
         <v>1</v>
       </c>
       <c r="AM34">
+        <v>1</v>
+      </c>
+      <c r="AN34">
+        <v>1</v>
+      </c>
+      <c r="AO34">
         <v>279557</v>
       </c>
     </row>
-    <row r="35" spans="1:39">
+    <row r="35" spans="1:41">
       <c r="A35" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -4780,7 +4990,7 @@
         <v>0</v>
       </c>
       <c r="T35">
-        <v>836914</v>
+        <v>850249</v>
       </c>
       <c r="U35">
         <v>33</v>
@@ -4816,30 +5026,36 @@
         <v>2140362</v>
       </c>
       <c r="AG35">
-        <v>7510827</v>
+        <v>7524162</v>
       </c>
       <c r="AH35">
-        <v>0.1114276763397692</v>
+        <v>0.1130024845291741</v>
       </c>
       <c r="AI35">
+        <v>0.6341774672049858</v>
+      </c>
+      <c r="AJ35">
         <v>1983</v>
       </c>
-      <c r="AJ35">
-        <v>0</v>
-      </c>
       <c r="AK35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL35">
         <v>1</v>
       </c>
       <c r="AM35">
+        <v>1</v>
+      </c>
+      <c r="AN35">
+        <v>1</v>
+      </c>
+      <c r="AO35">
         <v>908980</v>
       </c>
     </row>
-    <row r="36" spans="1:39">
+    <row r="36" spans="1:41">
       <c r="A36" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -4896,7 +5112,7 @@
         <v>0</v>
       </c>
       <c r="T36">
-        <v>836914</v>
+        <v>850249</v>
       </c>
       <c r="U36">
         <v>33</v>
@@ -4932,30 +5148,36 @@
         <v>3746015</v>
       </c>
       <c r="AG36">
-        <v>7510827</v>
+        <v>7524162</v>
       </c>
       <c r="AH36">
-        <v>0.1114276763397692</v>
+        <v>0.1130024845291741</v>
       </c>
       <c r="AI36">
+        <v>0.6341774672049858</v>
+      </c>
+      <c r="AJ36">
         <v>1983</v>
       </c>
-      <c r="AJ36">
-        <v>0</v>
-      </c>
       <c r="AK36">
         <v>0</v>
       </c>
       <c r="AL36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM36">
+        <v>0</v>
+      </c>
+      <c r="AN36">
+        <v>1</v>
+      </c>
+      <c r="AO36">
         <v>99817</v>
       </c>
     </row>
-    <row r="37" spans="1:39">
+    <row r="37" spans="1:41">
       <c r="A37" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -5012,7 +5234,7 @@
         <v>0</v>
       </c>
       <c r="T37">
-        <v>836914</v>
+        <v>850249</v>
       </c>
       <c r="U37">
         <v>33</v>
@@ -5048,30 +5270,36 @@
         <v>2121035</v>
       </c>
       <c r="AG37">
-        <v>7510827</v>
+        <v>7524162</v>
       </c>
       <c r="AH37">
-        <v>0.1114276763397692</v>
+        <v>0.1130024845291741</v>
       </c>
       <c r="AI37">
+        <v>0.6341774672049858</v>
+      </c>
+      <c r="AJ37">
         <v>1983</v>
       </c>
-      <c r="AJ37">
-        <v>0</v>
-      </c>
       <c r="AK37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL37">
         <v>1</v>
       </c>
       <c r="AM37">
+        <v>1</v>
+      </c>
+      <c r="AN37">
+        <v>1</v>
+      </c>
+      <c r="AO37">
         <v>223331</v>
       </c>
     </row>
-    <row r="38" spans="1:39">
+    <row r="38" spans="1:41">
       <c r="A38" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -5128,7 +5356,7 @@
         <v>0</v>
       </c>
       <c r="T38">
-        <v>836914</v>
+        <v>850249</v>
       </c>
       <c r="U38">
         <v>33</v>
@@ -5164,30 +5392,36 @@
         <v>1979992</v>
       </c>
       <c r="AG38">
-        <v>7510827</v>
+        <v>7524162</v>
       </c>
       <c r="AH38">
-        <v>0.1114276763397692</v>
+        <v>0.1130024845291741</v>
       </c>
       <c r="AI38">
+        <v>0.6341774672049858</v>
+      </c>
+      <c r="AJ38">
         <v>1983</v>
       </c>
-      <c r="AJ38">
-        <v>0</v>
-      </c>
       <c r="AK38">
         <v>0</v>
       </c>
       <c r="AL38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM38">
+        <v>1</v>
+      </c>
+      <c r="AN38">
+        <v>1</v>
+      </c>
+      <c r="AO38">
         <v>493899</v>
       </c>
     </row>
-    <row r="39" spans="1:39">
+    <row r="39" spans="1:41">
       <c r="A39" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -5244,7 +5478,7 @@
         <v>0</v>
       </c>
       <c r="T39">
-        <v>836914</v>
+        <v>850249</v>
       </c>
       <c r="U39">
         <v>33</v>
@@ -5280,30 +5514,36 @@
         <v>1772730</v>
       </c>
       <c r="AG39">
-        <v>7510827</v>
+        <v>7524162</v>
       </c>
       <c r="AH39">
-        <v>0.1114276763397692</v>
+        <v>0.1130024845291741</v>
       </c>
       <c r="AI39">
+        <v>0.6341774672049858</v>
+      </c>
+      <c r="AJ39">
         <v>1983</v>
       </c>
-      <c r="AJ39">
-        <v>0</v>
-      </c>
       <c r="AK39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL39">
         <v>1</v>
       </c>
       <c r="AM39">
+        <v>1</v>
+      </c>
+      <c r="AN39">
+        <v>1</v>
+      </c>
+      <c r="AO39">
         <v>1931814</v>
       </c>
     </row>
-    <row r="40" spans="1:39">
+    <row r="40" spans="1:41">
       <c r="A40" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -5360,7 +5600,7 @@
         <v>0</v>
       </c>
       <c r="T40">
-        <v>836914</v>
+        <v>850249</v>
       </c>
       <c r="U40">
         <v>33</v>
@@ -5396,30 +5636,36 @@
         <v>2304887</v>
       </c>
       <c r="AG40">
-        <v>7510827</v>
+        <v>7524162</v>
       </c>
       <c r="AH40">
-        <v>0.1114276763397692</v>
+        <v>0.1130024845291741</v>
       </c>
       <c r="AI40">
+        <v>0.6341774672049858</v>
+      </c>
+      <c r="AJ40">
         <v>1983</v>
       </c>
-      <c r="AJ40">
-        <v>0</v>
-      </c>
       <c r="AK40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL40">
         <v>1</v>
       </c>
       <c r="AM40">
+        <v>1</v>
+      </c>
+      <c r="AN40">
+        <v>1</v>
+      </c>
+      <c r="AO40">
         <v>114239</v>
       </c>
     </row>
-    <row r="41" spans="1:39">
+    <row r="41" spans="1:41">
       <c r="A41" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -5476,7 +5722,7 @@
         <v>0</v>
       </c>
       <c r="T41">
-        <v>836914</v>
+        <v>850249</v>
       </c>
       <c r="U41">
         <v>33</v>
@@ -5512,30 +5758,36 @@
         <v>633470</v>
       </c>
       <c r="AG41">
-        <v>7510827</v>
+        <v>7524162</v>
       </c>
       <c r="AH41">
-        <v>0.1114276763397692</v>
+        <v>0.1130024845291741</v>
       </c>
       <c r="AI41">
+        <v>0.6341774672049858</v>
+      </c>
+      <c r="AJ41">
         <v>1983</v>
       </c>
-      <c r="AJ41">
-        <v>0</v>
-      </c>
       <c r="AK41">
         <v>0</v>
       </c>
       <c r="AL41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM41">
+        <v>1</v>
+      </c>
+      <c r="AN41">
+        <v>1</v>
+      </c>
+      <c r="AO41">
         <v>909649</v>
       </c>
     </row>
-    <row r="42" spans="1:39">
+    <row r="42" spans="1:41">
       <c r="A42" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -5592,7 +5844,7 @@
         <v>0</v>
       </c>
       <c r="T42">
-        <v>836914</v>
+        <v>850249</v>
       </c>
       <c r="U42">
         <v>33</v>
@@ -5628,30 +5880,36 @@
         <v>1341485</v>
       </c>
       <c r="AG42">
-        <v>7510827</v>
+        <v>7524162</v>
       </c>
       <c r="AH42">
-        <v>0.1114276763397692</v>
+        <v>0.1130024845291741</v>
       </c>
       <c r="AI42">
+        <v>0.6341774672049858</v>
+      </c>
+      <c r="AJ42">
         <v>1983</v>
       </c>
-      <c r="AJ42">
-        <v>0</v>
-      </c>
       <c r="AK42">
         <v>0</v>
       </c>
       <c r="AL42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM42">
+        <v>1</v>
+      </c>
+      <c r="AN42">
+        <v>1</v>
+      </c>
+      <c r="AO42">
         <v>586045</v>
       </c>
     </row>
-    <row r="43" spans="1:39">
+    <row r="43" spans="1:41">
       <c r="A43" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -5708,7 +5966,7 @@
         <v>0</v>
       </c>
       <c r="T43">
-        <v>836914</v>
+        <v>850249</v>
       </c>
       <c r="U43">
         <v>33</v>
@@ -5744,30 +6002,36 @@
         <v>2473942</v>
       </c>
       <c r="AG43">
-        <v>7510827</v>
+        <v>7524162</v>
       </c>
       <c r="AH43">
-        <v>0.1114276763397692</v>
+        <v>0.1130024845291741</v>
       </c>
       <c r="AI43">
+        <v>0.6341774672049858</v>
+      </c>
+      <c r="AJ43">
         <v>1983</v>
       </c>
-      <c r="AJ43">
-        <v>0</v>
-      </c>
       <c r="AK43">
         <v>0</v>
       </c>
       <c r="AL43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM43">
+        <v>1</v>
+      </c>
+      <c r="AN43">
+        <v>1</v>
+      </c>
+      <c r="AO43">
         <v>457367</v>
       </c>
     </row>
-    <row r="44" spans="1:39">
+    <row r="44" spans="1:41">
       <c r="A44" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -5866,24 +6130,30 @@
         <v>0.01274401395484721</v>
       </c>
       <c r="AI44">
+        <v>0.7374263027211272</v>
+      </c>
+      <c r="AJ44">
         <v>1983</v>
       </c>
-      <c r="AJ44">
-        <v>0</v>
-      </c>
       <c r="AK44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL44">
         <v>1</v>
       </c>
       <c r="AM44">
+        <v>1</v>
+      </c>
+      <c r="AN44">
+        <v>1</v>
+      </c>
+      <c r="AO44">
         <v>396045.805</v>
       </c>
     </row>
-    <row r="45" spans="1:39">
+    <row r="45" spans="1:41">
       <c r="A45" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -5982,24 +6252,30 @@
         <v>0.01274401395484721</v>
       </c>
       <c r="AI45">
+        <v>0.7374263027211272</v>
+      </c>
+      <c r="AJ45">
         <v>1983</v>
       </c>
-      <c r="AJ45">
-        <v>0</v>
-      </c>
       <c r="AK45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL45">
         <v>1</v>
       </c>
       <c r="AM45">
+        <v>1</v>
+      </c>
+      <c r="AN45">
+        <v>1</v>
+      </c>
+      <c r="AO45">
         <v>362467.54</v>
       </c>
     </row>
-    <row r="46" spans="1:39">
+    <row r="46" spans="1:41">
       <c r="A46" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -6098,24 +6374,30 @@
         <v>0.01274401395484721</v>
       </c>
       <c r="AI46">
+        <v>0.7374263027211272</v>
+      </c>
+      <c r="AJ46">
         <v>1983</v>
       </c>
-      <c r="AJ46">
-        <v>0</v>
-      </c>
       <c r="AK46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL46">
         <v>1</v>
       </c>
       <c r="AM46">
+        <v>1</v>
+      </c>
+      <c r="AN46">
+        <v>1</v>
+      </c>
+      <c r="AO46">
         <v>845.985</v>
       </c>
     </row>
-    <row r="47" spans="1:39">
+    <row r="47" spans="1:41">
       <c r="A47" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -6214,24 +6496,30 @@
         <v>0.01274401395484721</v>
       </c>
       <c r="AI47">
+        <v>0.7374263027211272</v>
+      </c>
+      <c r="AJ47">
         <v>1983</v>
       </c>
-      <c r="AJ47">
-        <v>0</v>
-      </c>
       <c r="AK47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL47">
         <v>1</v>
       </c>
       <c r="AM47">
+        <v>1</v>
+      </c>
+      <c r="AN47">
+        <v>1</v>
+      </c>
+      <c r="AO47">
         <v>37729.87</v>
       </c>
     </row>
-    <row r="48" spans="1:39">
+    <row r="48" spans="1:41">
       <c r="A48" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B48">
         <v>1</v>
@@ -6330,24 +6618,30 @@
         <v>0.01274401395484721</v>
       </c>
       <c r="AI48">
+        <v>0.7374263027211272</v>
+      </c>
+      <c r="AJ48">
         <v>1983</v>
       </c>
-      <c r="AJ48">
-        <v>0</v>
-      </c>
       <c r="AK48">
         <v>0</v>
       </c>
       <c r="AL48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM48">
+        <v>1</v>
+      </c>
+      <c r="AN48">
+        <v>1</v>
+      </c>
+      <c r="AO48">
         <v>158767.575</v>
       </c>
     </row>
-    <row r="49" spans="1:39">
+    <row r="49" spans="1:41">
       <c r="A49" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B49">
         <v>1</v>
@@ -6446,24 +6740,30 @@
         <v>0.01274401395484721</v>
       </c>
       <c r="AI49">
+        <v>0.7374263027211272</v>
+      </c>
+      <c r="AJ49">
         <v>1983</v>
       </c>
-      <c r="AJ49">
-        <v>0</v>
-      </c>
       <c r="AK49">
         <v>0</v>
       </c>
       <c r="AL49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM49">
+        <v>1</v>
+      </c>
+      <c r="AN49">
+        <v>1</v>
+      </c>
+      <c r="AO49">
         <v>116385.485</v>
       </c>
     </row>
-    <row r="50" spans="1:39">
+    <row r="50" spans="1:41">
       <c r="A50" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -6562,24 +6862,30 @@
         <v>0.01274401395484721</v>
       </c>
       <c r="AI50">
+        <v>0.7374263027211272</v>
+      </c>
+      <c r="AJ50">
         <v>1983</v>
       </c>
-      <c r="AJ50">
-        <v>0</v>
-      </c>
       <c r="AK50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL50">
         <v>1</v>
       </c>
       <c r="AM50">
+        <v>1</v>
+      </c>
+      <c r="AN50">
+        <v>1</v>
+      </c>
+      <c r="AO50">
         <v>98283.84</v>
       </c>
     </row>
-    <row r="51" spans="1:39">
+    <row r="51" spans="1:41">
       <c r="A51" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -6678,24 +6984,30 @@
         <v>0.01274401395484721</v>
       </c>
       <c r="AI51">
+        <v>0.7374263027211272</v>
+      </c>
+      <c r="AJ51">
         <v>1983</v>
       </c>
-      <c r="AJ51">
-        <v>0</v>
-      </c>
       <c r="AK51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL51">
         <v>1</v>
       </c>
       <c r="AM51">
+        <v>1</v>
+      </c>
+      <c r="AN51">
+        <v>1</v>
+      </c>
+      <c r="AO51">
         <v>97513.14999999999</v>
       </c>
     </row>
-    <row r="52" spans="1:39">
+    <row r="52" spans="1:41">
       <c r="A52" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -6794,24 +7106,30 @@
         <v>0.01274401395484721</v>
       </c>
       <c r="AI52">
+        <v>0.7374263027211272</v>
+      </c>
+      <c r="AJ52">
         <v>1983</v>
       </c>
-      <c r="AJ52">
-        <v>0</v>
-      </c>
       <c r="AK52">
         <v>0</v>
       </c>
       <c r="AL52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM52">
+        <v>1</v>
+      </c>
+      <c r="AN52">
+        <v>1</v>
+      </c>
+      <c r="AO52">
         <v>86163.925</v>
       </c>
     </row>
-    <row r="53" spans="1:39">
+    <row r="53" spans="1:41">
       <c r="A53" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -6910,24 +7228,30 @@
         <v>0.01274401395484721</v>
       </c>
       <c r="AI53">
+        <v>0.7374263027211272</v>
+      </c>
+      <c r="AJ53">
         <v>1983</v>
       </c>
-      <c r="AJ53">
-        <v>0</v>
-      </c>
       <c r="AK53">
         <v>0</v>
       </c>
       <c r="AL53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM53">
+        <v>1</v>
+      </c>
+      <c r="AN53">
+        <v>1</v>
+      </c>
+      <c r="AO53">
         <v>7500</v>
       </c>
     </row>
-    <row r="54" spans="1:39">
+    <row r="54" spans="1:41">
       <c r="A54" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -7026,24 +7350,30 @@
         <v>0.01274401395484721</v>
       </c>
       <c r="AI54">
+        <v>0.7374263027211272</v>
+      </c>
+      <c r="AJ54">
         <v>1983</v>
       </c>
-      <c r="AJ54">
-        <v>0</v>
-      </c>
       <c r="AK54">
         <v>0</v>
       </c>
       <c r="AL54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM54">
+        <v>1</v>
+      </c>
+      <c r="AN54">
+        <v>1</v>
+      </c>
+      <c r="AO54">
         <v>56488.38</v>
       </c>
     </row>
-    <row r="55" spans="1:39">
+    <row r="55" spans="1:41">
       <c r="A55" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -7142,24 +7472,30 @@
         <v>0.03550931106761278</v>
       </c>
       <c r="AI55">
+        <v>0.7359195174083928</v>
+      </c>
+      <c r="AJ55">
         <v>1983</v>
       </c>
-      <c r="AJ55">
-        <v>0</v>
-      </c>
       <c r="AK55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL55">
         <v>1</v>
       </c>
       <c r="AM55">
+        <v>1</v>
+      </c>
+      <c r="AN55">
+        <v>1</v>
+      </c>
+      <c r="AO55">
         <v>396045.805</v>
       </c>
     </row>
-    <row r="56" spans="1:39">
+    <row r="56" spans="1:41">
       <c r="A56" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -7258,24 +7594,30 @@
         <v>0.03550931106761278</v>
       </c>
       <c r="AI56">
+        <v>0.7359195174083928</v>
+      </c>
+      <c r="AJ56">
         <v>1983</v>
       </c>
-      <c r="AJ56">
-        <v>0</v>
-      </c>
       <c r="AK56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL56">
         <v>1</v>
       </c>
       <c r="AM56">
+        <v>1</v>
+      </c>
+      <c r="AN56">
+        <v>1</v>
+      </c>
+      <c r="AO56">
         <v>362467.54</v>
       </c>
     </row>
-    <row r="57" spans="1:39">
+    <row r="57" spans="1:41">
       <c r="A57" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -7374,24 +7716,30 @@
         <v>0.03550931106761278</v>
       </c>
       <c r="AI57">
+        <v>0.7359195174083928</v>
+      </c>
+      <c r="AJ57">
         <v>1983</v>
       </c>
-      <c r="AJ57">
-        <v>0</v>
-      </c>
       <c r="AK57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL57">
         <v>1</v>
       </c>
       <c r="AM57">
+        <v>1</v>
+      </c>
+      <c r="AN57">
+        <v>1</v>
+      </c>
+      <c r="AO57">
         <v>845.985</v>
       </c>
     </row>
-    <row r="58" spans="1:39">
+    <row r="58" spans="1:41">
       <c r="A58" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -7490,24 +7838,30 @@
         <v>0.03550931106761278</v>
       </c>
       <c r="AI58">
+        <v>0.7359195174083928</v>
+      </c>
+      <c r="AJ58">
         <v>1983</v>
       </c>
-      <c r="AJ58">
-        <v>0</v>
-      </c>
       <c r="AK58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL58">
         <v>1</v>
       </c>
       <c r="AM58">
+        <v>1</v>
+      </c>
+      <c r="AN58">
+        <v>1</v>
+      </c>
+      <c r="AO58">
         <v>37729.87</v>
       </c>
     </row>
-    <row r="59" spans="1:39">
+    <row r="59" spans="1:41">
       <c r="A59" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B59">
         <v>1</v>
@@ -7606,24 +7960,30 @@
         <v>0.03550931106761278</v>
       </c>
       <c r="AI59">
+        <v>0.7359195174083928</v>
+      </c>
+      <c r="AJ59">
         <v>1983</v>
       </c>
-      <c r="AJ59">
-        <v>0</v>
-      </c>
       <c r="AK59">
         <v>0</v>
       </c>
       <c r="AL59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM59">
+        <v>1</v>
+      </c>
+      <c r="AN59">
+        <v>1</v>
+      </c>
+      <c r="AO59">
         <v>158767.575</v>
       </c>
     </row>
-    <row r="60" spans="1:39">
+    <row r="60" spans="1:41">
       <c r="A60" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B60">
         <v>1</v>
@@ -7722,24 +8082,30 @@
         <v>0.03550931106761278</v>
       </c>
       <c r="AI60">
+        <v>0.7359195174083928</v>
+      </c>
+      <c r="AJ60">
         <v>1983</v>
       </c>
-      <c r="AJ60">
-        <v>0</v>
-      </c>
       <c r="AK60">
         <v>0</v>
       </c>
       <c r="AL60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM60">
+        <v>1</v>
+      </c>
+      <c r="AN60">
+        <v>1</v>
+      </c>
+      <c r="AO60">
         <v>116385.485</v>
       </c>
     </row>
-    <row r="61" spans="1:39">
+    <row r="61" spans="1:41">
       <c r="A61" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -7838,24 +8204,30 @@
         <v>0.03550931106761278</v>
       </c>
       <c r="AI61">
+        <v>0.7359195174083928</v>
+      </c>
+      <c r="AJ61">
         <v>1983</v>
       </c>
-      <c r="AJ61">
-        <v>0</v>
-      </c>
       <c r="AK61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL61">
         <v>1</v>
       </c>
       <c r="AM61">
+        <v>1</v>
+      </c>
+      <c r="AN61">
+        <v>1</v>
+      </c>
+      <c r="AO61">
         <v>98283.84</v>
       </c>
     </row>
-    <row r="62" spans="1:39">
+    <row r="62" spans="1:41">
       <c r="A62" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -7954,24 +8326,30 @@
         <v>0.03550931106761278</v>
       </c>
       <c r="AI62">
+        <v>0.7359195174083928</v>
+      </c>
+      <c r="AJ62">
         <v>1983</v>
       </c>
-      <c r="AJ62">
-        <v>0</v>
-      </c>
       <c r="AK62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL62">
         <v>1</v>
       </c>
       <c r="AM62">
+        <v>1</v>
+      </c>
+      <c r="AN62">
+        <v>1</v>
+      </c>
+      <c r="AO62">
         <v>97513.14999999999</v>
       </c>
     </row>
-    <row r="63" spans="1:39">
+    <row r="63" spans="1:41">
       <c r="A63" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -8070,24 +8448,30 @@
         <v>0.03550931106761278</v>
       </c>
       <c r="AI63">
+        <v>0.7359195174083928</v>
+      </c>
+      <c r="AJ63">
         <v>1983</v>
       </c>
-      <c r="AJ63">
-        <v>0</v>
-      </c>
       <c r="AK63">
         <v>0</v>
       </c>
       <c r="AL63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM63">
+        <v>1</v>
+      </c>
+      <c r="AN63">
+        <v>1</v>
+      </c>
+      <c r="AO63">
         <v>86163.925</v>
       </c>
     </row>
-    <row r="64" spans="1:39">
+    <row r="64" spans="1:41">
       <c r="A64" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -8186,24 +8570,30 @@
         <v>0.03550931106761278</v>
       </c>
       <c r="AI64">
+        <v>0.7359195174083928</v>
+      </c>
+      <c r="AJ64">
         <v>1983</v>
       </c>
-      <c r="AJ64">
-        <v>0</v>
-      </c>
       <c r="AK64">
         <v>0</v>
       </c>
       <c r="AL64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM64">
+        <v>1</v>
+      </c>
+      <c r="AN64">
+        <v>1</v>
+      </c>
+      <c r="AO64">
         <v>7500</v>
       </c>
     </row>
-    <row r="65" spans="1:39">
+    <row r="65" spans="1:41">
       <c r="A65" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -8302,24 +8692,30 @@
         <v>0.03550931106761278</v>
       </c>
       <c r="AI65">
+        <v>0.7359195174083928</v>
+      </c>
+      <c r="AJ65">
         <v>1983</v>
       </c>
-      <c r="AJ65">
-        <v>0</v>
-      </c>
       <c r="AK65">
         <v>0</v>
       </c>
       <c r="AL65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM65">
+        <v>1</v>
+      </c>
+      <c r="AN65">
+        <v>1</v>
+      </c>
+      <c r="AO65">
         <v>56488.38</v>
       </c>
     </row>
-    <row r="66" spans="1:39">
+    <row r="66" spans="1:41">
       <c r="A66" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -8358,7 +8754,7 @@
         <v>0</v>
       </c>
       <c r="N66">
-        <v>9726427.970000001</v>
+        <v>9726427.969999999</v>
       </c>
       <c r="O66">
         <v>12187.54</v>
@@ -8412,30 +8808,36 @@
         <v>10535466</v>
       </c>
       <c r="AG66">
-        <v>9946235.440000001</v>
+        <v>9946235.439999999</v>
       </c>
       <c r="AH66">
-        <v>0.02209956433526773</v>
+        <v>0.02209956433526774</v>
       </c>
       <c r="AI66">
+        <v>0.8083460369001682</v>
+      </c>
+      <c r="AJ66">
         <v>1983</v>
       </c>
-      <c r="AJ66">
-        <v>0</v>
-      </c>
       <c r="AK66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL66">
         <v>1</v>
       </c>
       <c r="AM66">
+        <v>1</v>
+      </c>
+      <c r="AN66">
+        <v>1</v>
+      </c>
+      <c r="AO66">
         <v>354729.215</v>
       </c>
     </row>
-    <row r="67" spans="1:39">
+    <row r="67" spans="1:41">
       <c r="A67" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -8474,7 +8876,7 @@
         <v>0</v>
       </c>
       <c r="N67">
-        <v>9726427.970000001</v>
+        <v>9726427.969999999</v>
       </c>
       <c r="O67">
         <v>12187.54</v>
@@ -8528,30 +8930,36 @@
         <v>2620200</v>
       </c>
       <c r="AG67">
-        <v>9946235.440000001</v>
+        <v>9946235.439999999</v>
       </c>
       <c r="AH67">
-        <v>0.02209956433526773</v>
+        <v>0.02209956433526774</v>
       </c>
       <c r="AI67">
+        <v>0.8083460369001682</v>
+      </c>
+      <c r="AJ67">
         <v>1983</v>
       </c>
-      <c r="AJ67">
-        <v>0</v>
-      </c>
       <c r="AK67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL67">
         <v>1</v>
       </c>
       <c r="AM67">
+        <v>1</v>
+      </c>
+      <c r="AN67">
+        <v>1</v>
+      </c>
+      <c r="AO67">
         <v>56214.94</v>
       </c>
     </row>
-    <row r="68" spans="1:39">
+    <row r="68" spans="1:41">
       <c r="A68" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -8590,7 +8998,7 @@
         <v>0</v>
       </c>
       <c r="N68">
-        <v>9726427.970000001</v>
+        <v>9726427.969999999</v>
       </c>
       <c r="O68">
         <v>12187.54</v>
@@ -8644,30 +9052,36 @@
         <v>6909225</v>
       </c>
       <c r="AG68">
-        <v>9946235.440000001</v>
+        <v>9946235.439999999</v>
       </c>
       <c r="AH68">
-        <v>0.02209956433526773</v>
+        <v>0.02209956433526774</v>
       </c>
       <c r="AI68">
+        <v>0.8083460369001682</v>
+      </c>
+      <c r="AJ68">
         <v>1983</v>
       </c>
-      <c r="AJ68">
-        <v>0</v>
-      </c>
       <c r="AK68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL68">
         <v>1</v>
       </c>
       <c r="AM68">
+        <v>1</v>
+      </c>
+      <c r="AN68">
+        <v>1</v>
+      </c>
+      <c r="AO68">
         <v>160295.21</v>
       </c>
     </row>
-    <row r="69" spans="1:39">
+    <row r="69" spans="1:41">
       <c r="A69" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -8706,7 +9120,7 @@
         <v>0</v>
       </c>
       <c r="N69">
-        <v>9726427.970000001</v>
+        <v>9726427.969999999</v>
       </c>
       <c r="O69">
         <v>12187.54</v>
@@ -8760,30 +9174,36 @@
         <v>0</v>
       </c>
       <c r="AG69">
-        <v>9946235.440000001</v>
+        <v>9946235.439999999</v>
       </c>
       <c r="AH69">
-        <v>0.02209956433526773</v>
+        <v>0.02209956433526774</v>
       </c>
       <c r="AI69">
+        <v>0.8083460369001682</v>
+      </c>
+      <c r="AJ69">
         <v>1983</v>
       </c>
-      <c r="AJ69">
-        <v>0</v>
-      </c>
       <c r="AK69">
         <v>0</v>
       </c>
       <c r="AL69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM69">
+        <v>1</v>
+      </c>
+      <c r="AN69">
+        <v>1</v>
+      </c>
+      <c r="AO69">
         <v>77794.38499999999</v>
       </c>
     </row>
-    <row r="70" spans="1:39">
+    <row r="70" spans="1:41">
       <c r="A70" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -8822,7 +9242,7 @@
         <v>0</v>
       </c>
       <c r="N70">
-        <v>9726427.970000001</v>
+        <v>9726427.969999999</v>
       </c>
       <c r="O70">
         <v>12187.54</v>
@@ -8876,30 +9296,36 @@
         <v>0</v>
       </c>
       <c r="AG70">
-        <v>9946235.440000001</v>
+        <v>9946235.439999999</v>
       </c>
       <c r="AH70">
-        <v>0.02209956433526773</v>
+        <v>0.02209956433526774</v>
       </c>
       <c r="AI70">
+        <v>0.8083460369001682</v>
+      </c>
+      <c r="AJ70">
         <v>1983</v>
       </c>
-      <c r="AJ70">
-        <v>0</v>
-      </c>
       <c r="AK70">
         <v>0</v>
       </c>
       <c r="AL70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM70">
+        <v>1</v>
+      </c>
+      <c r="AN70">
+        <v>1</v>
+      </c>
+      <c r="AO70">
         <v>53598.99</v>
       </c>
     </row>
-    <row r="71" spans="1:39">
+    <row r="71" spans="1:41">
       <c r="A71" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B71">
         <v>1</v>
@@ -8938,7 +9364,7 @@
         <v>0</v>
       </c>
       <c r="N71">
-        <v>9726427.970000001</v>
+        <v>9726427.969999999</v>
       </c>
       <c r="O71">
         <v>12187.54</v>
@@ -8992,30 +9418,36 @@
         <v>6870483.333333333</v>
       </c>
       <c r="AG71">
-        <v>9946235.440000001</v>
+        <v>9946235.439999999</v>
       </c>
       <c r="AH71">
-        <v>0.02209956433526773</v>
+        <v>0.02209956433526774</v>
       </c>
       <c r="AI71">
+        <v>0.8083460369001682</v>
+      </c>
+      <c r="AJ71">
         <v>1983</v>
       </c>
-      <c r="AJ71">
-        <v>0</v>
-      </c>
       <c r="AK71">
         <v>0</v>
       </c>
       <c r="AL71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM71">
+        <v>1</v>
+      </c>
+      <c r="AN71">
+        <v>1</v>
+      </c>
+      <c r="AO71">
         <v>634350.265</v>
       </c>
     </row>
-    <row r="72" spans="1:39">
+    <row r="72" spans="1:41">
       <c r="A72" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -9054,7 +9486,7 @@
         <v>0</v>
       </c>
       <c r="N72">
-        <v>9726427.970000001</v>
+        <v>9726427.969999999</v>
       </c>
       <c r="O72">
         <v>12187.54</v>
@@ -9108,30 +9540,36 @@
         <v>5872715</v>
       </c>
       <c r="AG72">
-        <v>9946235.440000001</v>
+        <v>9946235.439999999</v>
       </c>
       <c r="AH72">
-        <v>0.02209956433526773</v>
+        <v>0.02209956433526774</v>
       </c>
       <c r="AI72">
+        <v>0.8083460369001682</v>
+      </c>
+      <c r="AJ72">
         <v>1983</v>
       </c>
-      <c r="AJ72">
-        <v>0</v>
-      </c>
       <c r="AK72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL72">
         <v>1</v>
       </c>
       <c r="AM72">
+        <v>1</v>
+      </c>
+      <c r="AN72">
+        <v>1</v>
+      </c>
+      <c r="AO72">
         <v>187712.025</v>
       </c>
     </row>
-    <row r="73" spans="1:39">
+    <row r="73" spans="1:41">
       <c r="A73" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -9170,7 +9608,7 @@
         <v>0</v>
       </c>
       <c r="N73">
-        <v>9726427.970000001</v>
+        <v>9726427.969999999</v>
       </c>
       <c r="O73">
         <v>12187.54</v>
@@ -9224,30 +9662,36 @@
         <v>8243214</v>
       </c>
       <c r="AG73">
-        <v>9946235.440000001</v>
+        <v>9946235.439999999</v>
       </c>
       <c r="AH73">
-        <v>0.02209956433526773</v>
+        <v>0.02209956433526774</v>
       </c>
       <c r="AI73">
+        <v>0.8083460369001682</v>
+      </c>
+      <c r="AJ73">
         <v>1983</v>
       </c>
-      <c r="AJ73">
-        <v>0</v>
-      </c>
       <c r="AK73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL73">
         <v>1</v>
       </c>
       <c r="AM73">
+        <v>1</v>
+      </c>
+      <c r="AN73">
+        <v>1</v>
+      </c>
+      <c r="AO73">
         <v>234371.025</v>
       </c>
     </row>
-    <row r="74" spans="1:39">
+    <row r="74" spans="1:41">
       <c r="A74" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B74">
         <v>1</v>
@@ -9286,7 +9730,7 @@
         <v>0</v>
       </c>
       <c r="N74">
-        <v>9726427.970000001</v>
+        <v>9726427.969999999</v>
       </c>
       <c r="O74">
         <v>12187.54</v>
@@ -9340,30 +9784,36 @@
         <v>6883888.333333333</v>
       </c>
       <c r="AG74">
-        <v>9946235.440000001</v>
+        <v>9946235.439999999</v>
       </c>
       <c r="AH74">
-        <v>0.02209956433526773</v>
+        <v>0.02209956433526774</v>
       </c>
       <c r="AI74">
+        <v>0.8083460369001682</v>
+      </c>
+      <c r="AJ74">
         <v>1983</v>
       </c>
-      <c r="AJ74">
-        <v>0</v>
-      </c>
       <c r="AK74">
         <v>0</v>
       </c>
       <c r="AL74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM74">
+        <v>1</v>
+      </c>
+      <c r="AN74">
+        <v>1</v>
+      </c>
+      <c r="AO74">
         <v>276902.02</v>
       </c>
     </row>
-    <row r="75" spans="1:39">
+    <row r="75" spans="1:41">
       <c r="A75" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -9402,7 +9852,7 @@
         <v>0</v>
       </c>
       <c r="N75">
-        <v>9726427.970000001</v>
+        <v>9726427.969999999</v>
       </c>
       <c r="O75">
         <v>12187.54</v>
@@ -9456,30 +9906,36 @@
         <v>3285769</v>
       </c>
       <c r="AG75">
-        <v>9946235.440000001</v>
+        <v>9946235.439999999</v>
       </c>
       <c r="AH75">
-        <v>0.02209956433526773</v>
+        <v>0.02209956433526774</v>
       </c>
       <c r="AI75">
+        <v>0.8083460369001682</v>
+      </c>
+      <c r="AJ75">
         <v>1983</v>
       </c>
-      <c r="AJ75">
-        <v>0</v>
-      </c>
       <c r="AK75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL75">
         <v>1</v>
       </c>
       <c r="AM75">
+        <v>1</v>
+      </c>
+      <c r="AN75">
+        <v>1</v>
+      </c>
+      <c r="AO75">
         <v>140357.385</v>
       </c>
     </row>
-    <row r="76" spans="1:39">
+    <row r="76" spans="1:41">
       <c r="A76" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -9518,7 +9974,7 @@
         <v>0</v>
       </c>
       <c r="N76">
-        <v>9726427.970000001</v>
+        <v>9726427.969999999</v>
       </c>
       <c r="O76">
         <v>12187.54</v>
@@ -9572,30 +10028,36 @@
         <v>6001329</v>
       </c>
       <c r="AG76">
-        <v>9946235.440000001</v>
+        <v>9946235.439999999</v>
       </c>
       <c r="AH76">
-        <v>0.02209956433526773</v>
+        <v>0.02209956433526774</v>
       </c>
       <c r="AI76">
+        <v>0.8083460369001682</v>
+      </c>
+      <c r="AJ76">
         <v>1983</v>
       </c>
-      <c r="AJ76">
-        <v>0</v>
-      </c>
       <c r="AK76">
         <v>0</v>
       </c>
       <c r="AL76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM76">
+        <v>1</v>
+      </c>
+      <c r="AN76">
+        <v>1</v>
+      </c>
+      <c r="AO76">
         <v>103898.595</v>
       </c>
     </row>
-    <row r="77" spans="1:39">
+    <row r="77" spans="1:41">
       <c r="A77" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -9694,24 +10156,30 @@
         <v>0.04792890694627538</v>
       </c>
       <c r="AI77">
+        <v>0.1100585491131586</v>
+      </c>
+      <c r="AJ77">
         <v>1983</v>
       </c>
-      <c r="AJ77">
-        <v>0</v>
-      </c>
       <c r="AK77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL77">
         <v>1</v>
       </c>
       <c r="AM77">
+        <v>1</v>
+      </c>
+      <c r="AN77">
+        <v>1</v>
+      </c>
+      <c r="AO77">
         <v>354729.215</v>
       </c>
     </row>
-    <row r="78" spans="1:39">
+    <row r="78" spans="1:41">
       <c r="A78" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -9810,24 +10278,30 @@
         <v>0.04792890694627538</v>
       </c>
       <c r="AI78">
+        <v>0.1100585491131586</v>
+      </c>
+      <c r="AJ78">
         <v>1983</v>
       </c>
-      <c r="AJ78">
-        <v>0</v>
-      </c>
       <c r="AK78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL78">
         <v>1</v>
       </c>
       <c r="AM78">
+        <v>1</v>
+      </c>
+      <c r="AN78">
+        <v>1</v>
+      </c>
+      <c r="AO78">
         <v>56214.94</v>
       </c>
     </row>
-    <row r="79" spans="1:39">
+    <row r="79" spans="1:41">
       <c r="A79" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -9926,24 +10400,30 @@
         <v>0.04792890694627538</v>
       </c>
       <c r="AI79">
+        <v>0.1100585491131586</v>
+      </c>
+      <c r="AJ79">
         <v>1983</v>
       </c>
-      <c r="AJ79">
-        <v>0</v>
-      </c>
       <c r="AK79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL79">
         <v>1</v>
       </c>
       <c r="AM79">
+        <v>1</v>
+      </c>
+      <c r="AN79">
+        <v>1</v>
+      </c>
+      <c r="AO79">
         <v>160295.21</v>
       </c>
     </row>
-    <row r="80" spans="1:39">
+    <row r="80" spans="1:41">
       <c r="A80" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -10042,24 +10522,30 @@
         <v>0.04792890694627538</v>
       </c>
       <c r="AI80">
+        <v>0.1100585491131586</v>
+      </c>
+      <c r="AJ80">
         <v>1983</v>
       </c>
-      <c r="AJ80">
-        <v>0</v>
-      </c>
       <c r="AK80">
         <v>0</v>
       </c>
       <c r="AL80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM80">
+        <v>1</v>
+      </c>
+      <c r="AN80">
+        <v>1</v>
+      </c>
+      <c r="AO80">
         <v>77794.38499999999</v>
       </c>
     </row>
-    <row r="81" spans="1:39">
+    <row r="81" spans="1:41">
       <c r="A81" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -10158,24 +10644,30 @@
         <v>0.04792890694627538</v>
       </c>
       <c r="AI81">
+        <v>0.1100585491131586</v>
+      </c>
+      <c r="AJ81">
         <v>1983</v>
       </c>
-      <c r="AJ81">
-        <v>0</v>
-      </c>
       <c r="AK81">
         <v>0</v>
       </c>
       <c r="AL81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM81">
+        <v>1</v>
+      </c>
+      <c r="AN81">
+        <v>1</v>
+      </c>
+      <c r="AO81">
         <v>53598.99</v>
       </c>
     </row>
-    <row r="82" spans="1:39">
+    <row r="82" spans="1:41">
       <c r="A82" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -10274,24 +10766,30 @@
         <v>0.04792890694627538</v>
       </c>
       <c r="AI82">
+        <v>0.1100585491131586</v>
+      </c>
+      <c r="AJ82">
         <v>1983</v>
       </c>
-      <c r="AJ82">
-        <v>0</v>
-      </c>
       <c r="AK82">
         <v>0</v>
       </c>
       <c r="AL82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM82">
+        <v>1</v>
+      </c>
+      <c r="AN82">
+        <v>1</v>
+      </c>
+      <c r="AO82">
         <v>634350.265</v>
       </c>
     </row>
-    <row r="83" spans="1:39">
+    <row r="83" spans="1:41">
       <c r="A83" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -10390,24 +10888,30 @@
         <v>0.04792890694627538</v>
       </c>
       <c r="AI83">
+        <v>0.1100585491131586</v>
+      </c>
+      <c r="AJ83">
         <v>1983</v>
       </c>
-      <c r="AJ83">
-        <v>0</v>
-      </c>
       <c r="AK83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL83">
         <v>1</v>
       </c>
       <c r="AM83">
+        <v>1</v>
+      </c>
+      <c r="AN83">
+        <v>1</v>
+      </c>
+      <c r="AO83">
         <v>187712.025</v>
       </c>
     </row>
-    <row r="84" spans="1:39">
+    <row r="84" spans="1:41">
       <c r="A84" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -10506,24 +11010,30 @@
         <v>0.04792890694627538</v>
       </c>
       <c r="AI84">
+        <v>0.1100585491131586</v>
+      </c>
+      <c r="AJ84">
         <v>1983</v>
       </c>
-      <c r="AJ84">
-        <v>0</v>
-      </c>
       <c r="AK84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL84">
         <v>1</v>
       </c>
       <c r="AM84">
+        <v>1</v>
+      </c>
+      <c r="AN84">
+        <v>1</v>
+      </c>
+      <c r="AO84">
         <v>234371.025</v>
       </c>
     </row>
-    <row r="85" spans="1:39">
+    <row r="85" spans="1:41">
       <c r="A85" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -10622,24 +11132,30 @@
         <v>0.04792890694627538</v>
       </c>
       <c r="AI85">
+        <v>0.1100585491131586</v>
+      </c>
+      <c r="AJ85">
         <v>1983</v>
       </c>
-      <c r="AJ85">
-        <v>0</v>
-      </c>
       <c r="AK85">
         <v>0</v>
       </c>
       <c r="AL85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM85">
+        <v>1</v>
+      </c>
+      <c r="AN85">
+        <v>1</v>
+      </c>
+      <c r="AO85">
         <v>276902.02</v>
       </c>
     </row>
-    <row r="86" spans="1:39">
+    <row r="86" spans="1:41">
       <c r="A86" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -10738,24 +11254,30 @@
         <v>0.04792890694627538</v>
       </c>
       <c r="AI86">
+        <v>0.1100585491131586</v>
+      </c>
+      <c r="AJ86">
         <v>1983</v>
       </c>
-      <c r="AJ86">
-        <v>0</v>
-      </c>
       <c r="AK86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL86">
         <v>1</v>
       </c>
       <c r="AM86">
+        <v>1</v>
+      </c>
+      <c r="AN86">
+        <v>1</v>
+      </c>
+      <c r="AO86">
         <v>140357.385</v>
       </c>
     </row>
-    <row r="87" spans="1:39">
+    <row r="87" spans="1:41">
       <c r="A87" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -10854,24 +11376,30 @@
         <v>0.04792890694627538</v>
       </c>
       <c r="AI87">
+        <v>0.1100585491131586</v>
+      </c>
+      <c r="AJ87">
         <v>1983</v>
       </c>
-      <c r="AJ87">
-        <v>0</v>
-      </c>
       <c r="AK87">
         <v>0</v>
       </c>
       <c r="AL87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM87">
+        <v>1</v>
+      </c>
+      <c r="AN87">
+        <v>1</v>
+      </c>
+      <c r="AO87">
         <v>103898.595</v>
       </c>
     </row>
-    <row r="88" spans="1:39">
+    <row r="88" spans="1:41">
       <c r="A88" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -10970,30 +11498,36 @@
         <v>0.03004024640768311</v>
       </c>
       <c r="AI88">
+        <v>0.1862005739040234</v>
+      </c>
+      <c r="AJ88">
         <v>1983</v>
       </c>
-      <c r="AJ88">
-        <v>0</v>
-      </c>
       <c r="AK88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL88">
         <v>1</v>
       </c>
       <c r="AM88">
+        <v>1</v>
+      </c>
+      <c r="AN88">
+        <v>1</v>
+      </c>
+      <c r="AO88">
         <v>712526</v>
       </c>
     </row>
-    <row r="89" spans="1:39">
+    <row r="89" spans="1:41">
       <c r="A89" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B89">
         <v>0</v>
       </c>
       <c r="C89" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D89">
         <v>0</v>
@@ -11086,24 +11620,30 @@
         <v>0.03004024640768311</v>
       </c>
       <c r="AI89">
+        <v>0.1862005739040234</v>
+      </c>
+      <c r="AJ89">
         <v>1983</v>
       </c>
-      <c r="AJ89">
-        <v>0</v>
-      </c>
       <c r="AK89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL89">
         <v>1</v>
       </c>
       <c r="AM89">
+        <v>1</v>
+      </c>
+      <c r="AN89">
+        <v>1</v>
+      </c>
+      <c r="AO89">
         <v>200580</v>
       </c>
     </row>
-    <row r="90" spans="1:39">
+    <row r="90" spans="1:41">
       <c r="A90" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -11202,24 +11742,30 @@
         <v>0.03004024640768311</v>
       </c>
       <c r="AI90">
+        <v>0.1862005739040234</v>
+      </c>
+      <c r="AJ90">
         <v>1983</v>
       </c>
-      <c r="AJ90">
-        <v>0</v>
-      </c>
       <c r="AK90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL90">
         <v>1</v>
       </c>
       <c r="AM90">
+        <v>1</v>
+      </c>
+      <c r="AN90">
+        <v>1</v>
+      </c>
+      <c r="AO90">
         <v>178647</v>
       </c>
     </row>
-    <row r="91" spans="1:39">
+    <row r="91" spans="1:41">
       <c r="A91" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -11318,24 +11864,30 @@
         <v>0.03004024640768311</v>
       </c>
       <c r="AI91">
+        <v>0.1862005739040234</v>
+      </c>
+      <c r="AJ91">
         <v>1983</v>
       </c>
-      <c r="AJ91">
-        <v>0</v>
-      </c>
       <c r="AK91">
         <v>0</v>
       </c>
       <c r="AL91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM91">
+        <v>1</v>
+      </c>
+      <c r="AN91">
+        <v>1</v>
+      </c>
+      <c r="AO91">
         <v>99372</v>
       </c>
     </row>
-    <row r="92" spans="1:39">
+    <row r="92" spans="1:41">
       <c r="A92" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -11434,24 +11986,30 @@
         <v>0.03004024640768311</v>
       </c>
       <c r="AI92">
+        <v>0.1862005739040234</v>
+      </c>
+      <c r="AJ92">
         <v>1983</v>
       </c>
-      <c r="AJ92">
-        <v>0</v>
-      </c>
       <c r="AK92">
         <v>0</v>
       </c>
       <c r="AL92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM92">
+        <v>1</v>
+      </c>
+      <c r="AN92">
+        <v>1</v>
+      </c>
+      <c r="AO92">
         <v>148690</v>
       </c>
     </row>
-    <row r="93" spans="1:39">
+    <row r="93" spans="1:41">
       <c r="A93" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B93">
         <v>1</v>
@@ -11550,24 +12108,30 @@
         <v>0.03004024640768311</v>
       </c>
       <c r="AI93">
+        <v>0.1862005739040234</v>
+      </c>
+      <c r="AJ93">
         <v>1983</v>
       </c>
-      <c r="AJ93">
-        <v>0</v>
-      </c>
       <c r="AK93">
         <v>0</v>
       </c>
       <c r="AL93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM93">
+        <v>1</v>
+      </c>
+      <c r="AN93">
+        <v>1</v>
+      </c>
+      <c r="AO93">
         <v>874256</v>
       </c>
     </row>
-    <row r="94" spans="1:39">
+    <row r="94" spans="1:41">
       <c r="A94" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -11666,24 +12230,30 @@
         <v>0.03004024640768311</v>
       </c>
       <c r="AI94">
+        <v>0.1862005739040234</v>
+      </c>
+      <c r="AJ94">
         <v>1983</v>
       </c>
-      <c r="AJ94">
-        <v>0</v>
-      </c>
       <c r="AK94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL94">
         <v>1</v>
       </c>
       <c r="AM94">
+        <v>1</v>
+      </c>
+      <c r="AN94">
+        <v>1</v>
+      </c>
+      <c r="AO94">
         <v>381189</v>
       </c>
     </row>
-    <row r="95" spans="1:39">
+    <row r="95" spans="1:41">
       <c r="A95" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -11782,24 +12352,30 @@
         <v>0.03004024640768311</v>
       </c>
       <c r="AI95">
+        <v>0.1862005739040234</v>
+      </c>
+      <c r="AJ95">
         <v>1983</v>
       </c>
-      <c r="AJ95">
-        <v>0</v>
-      </c>
       <c r="AK95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL95">
         <v>1</v>
       </c>
       <c r="AM95">
+        <v>1</v>
+      </c>
+      <c r="AN95">
+        <v>1</v>
+      </c>
+      <c r="AO95">
         <v>27685</v>
       </c>
     </row>
-    <row r="96" spans="1:39">
+    <row r="96" spans="1:41">
       <c r="A96" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B96">
         <v>1</v>
@@ -11898,24 +12474,30 @@
         <v>0.03004024640768311</v>
       </c>
       <c r="AI96">
+        <v>0.1862005739040234</v>
+      </c>
+      <c r="AJ96">
         <v>1983</v>
       </c>
-      <c r="AJ96">
-        <v>0</v>
-      </c>
       <c r="AK96">
         <v>0</v>
       </c>
       <c r="AL96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM96">
+        <v>1</v>
+      </c>
+      <c r="AN96">
+        <v>1</v>
+      </c>
+      <c r="AO96">
         <v>543875</v>
       </c>
     </row>
-    <row r="97" spans="1:39">
+    <row r="97" spans="1:41">
       <c r="A97" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -12014,24 +12596,30 @@
         <v>0.03004024640768311</v>
       </c>
       <c r="AI97">
+        <v>0.1862005739040234</v>
+      </c>
+      <c r="AJ97">
         <v>1983</v>
       </c>
-      <c r="AJ97">
-        <v>0</v>
-      </c>
       <c r="AK97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL97">
         <v>1</v>
       </c>
       <c r="AM97">
+        <v>1</v>
+      </c>
+      <c r="AN97">
+        <v>1</v>
+      </c>
+      <c r="AO97">
         <v>334787</v>
       </c>
     </row>
-    <row r="98" spans="1:39">
+    <row r="98" spans="1:41">
       <c r="A98" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B98">
         <v>0</v>
@@ -12130,18 +12718,24 @@
         <v>0.03004024640768311</v>
       </c>
       <c r="AI98">
+        <v>0.1862005739040234</v>
+      </c>
+      <c r="AJ98">
         <v>1983</v>
       </c>
-      <c r="AJ98">
-        <v>0</v>
-      </c>
       <c r="AK98">
         <v>0</v>
       </c>
       <c r="AL98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM98">
+        <v>1</v>
+      </c>
+      <c r="AN98">
+        <v>1</v>
+      </c>
+      <c r="AO98">
         <v>350303</v>
       </c>
     </row>

--- a/output/mpdl.xlsx
+++ b/output/mpdl.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="138">
   <si>
     <t>Pais-Año</t>
   </si>
@@ -22,25 +22,25 @@
     <t>ONU</t>
   </si>
   <si>
-    <t>Gross_National_Income</t>
+    <t>GDP</t>
   </si>
   <si>
     <t>Public_Grant</t>
   </si>
   <si>
-    <t>NGO_Country_Budget_Previous_Year</t>
-  </si>
-  <si>
-    <t>Vision_ONGD_LatinAmerica</t>
-  </si>
-  <si>
-    <t>Vision_ONGD_Africa</t>
-  </si>
-  <si>
-    <t>Vision_ONGD_Confessional</t>
-  </si>
-  <si>
-    <t>Vision_ONGD_Universal</t>
+    <t>Budget_Previous_Year</t>
+  </si>
+  <si>
+    <t>LatinAmerica</t>
+  </si>
+  <si>
+    <t>Africa</t>
+  </si>
+  <si>
+    <t>Confessional</t>
+  </si>
+  <si>
+    <t>Universal</t>
   </si>
   <si>
     <t>Public_Funds_MAE</t>
@@ -109,16 +109,16 @@
     <t>Voluntarios_Extranjero</t>
   </si>
   <si>
-    <t>Total_subvencion_en_el_Pais_y_Anyo</t>
-  </si>
-  <si>
-    <t>Total_Fondos</t>
-  </si>
-  <si>
-    <t>Proporcion_Fondos_Privados</t>
-  </si>
-  <si>
-    <t>Proporcion_Fondos_MAE</t>
+    <t>Donor_Aid_Budget</t>
+  </si>
+  <si>
+    <t>Total_Funds</t>
+  </si>
+  <si>
+    <t>%_Private_Funds</t>
+  </si>
+  <si>
+    <t>%_MAE_Funds</t>
   </si>
   <si>
     <t>Anyo_ONG</t>
@@ -130,7 +130,7 @@
     <t>Colony</t>
   </si>
   <si>
-    <t>Delegacion</t>
+    <t>Delegation</t>
   </si>
   <si>
     <t>Visitado</t>
@@ -401,9 +401,6 @@
   </si>
   <si>
     <t>2016_cuba</t>
-  </si>
-  <si>
-    <t>..</t>
   </si>
   <si>
     <t>2016_guatemala</t>
@@ -913,7 +910,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>2880</v>
+        <v>2771.04675450926</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1157,7 +1154,7 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>5520</v>
+        <v>5596.139681459835</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -1279,7 +1276,7 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>2620</v>
+        <v>2870.311589353206</v>
       </c>
       <c r="D5">
         <v>236026</v>
@@ -1401,7 +1398,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>1380</v>
+        <v>1460.056109840828</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1523,7 +1520,7 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>4940</v>
+        <v>5191.140356354663</v>
       </c>
       <c r="D7">
         <v>243452</v>
@@ -1625,7 +1622,7 @@
         <v>0</v>
       </c>
       <c r="AL7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM7">
         <v>1</v>
@@ -1645,7 +1642,7 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>5130</v>
+        <v>6128.19547247793</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -1767,7 +1764,7 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>3970</v>
+        <v>4729.735976516416</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -1889,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>6474.166666666667</v>
+        <v>5741.405300355145</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -2011,7 +2008,7 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>3350</v>
+        <v>3799.441100542036</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -2133,7 +2130,7 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>6880</v>
+        <v>7397.509860835168</v>
       </c>
       <c r="D12">
         <v>411037</v>
@@ -2377,7 +2374,7 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>2930</v>
+        <v>2839.92516805933</v>
       </c>
       <c r="D14">
         <v>250000</v>
@@ -2621,7 +2618,7 @@
         <v>1</v>
       </c>
       <c r="C16">
-        <v>690</v>
+        <v>710.2742021758368</v>
       </c>
       <c r="D16">
         <v>2000000</v>
@@ -2743,7 +2740,7 @@
         <v>1</v>
       </c>
       <c r="C17">
-        <v>350</v>
+        <v>473.2998774917226</v>
       </c>
       <c r="D17">
         <v>2000000</v>
@@ -2865,7 +2862,7 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>5610</v>
+        <v>5730.354774594881</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -2987,7 +2984,7 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>2710</v>
+        <v>2898.942214704482</v>
       </c>
       <c r="D19">
         <v>3000000</v>
@@ -3109,7 +3106,7 @@
         <v>1</v>
       </c>
       <c r="C20">
-        <v>650</v>
+        <v>665.6274194933962</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -3211,7 +3208,7 @@
         <v>0</v>
       </c>
       <c r="AL20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM20">
         <v>0</v>
@@ -3231,7 +3228,7 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>1460</v>
+        <v>1503.870423231357</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -3353,7 +3350,7 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>5340</v>
+        <v>5555.389721901988</v>
       </c>
       <c r="D22">
         <v>288389</v>
@@ -3455,7 +3452,7 @@
         <v>0</v>
       </c>
       <c r="AL22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM22">
         <v>0</v>
@@ -3475,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>5610</v>
+        <v>6336.709213679884</v>
       </c>
       <c r="D23">
         <v>3000000</v>
@@ -3597,7 +3594,7 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>4410</v>
+        <v>5082.354756663512</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -3719,7 +3716,7 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>6278.333333333333</v>
+        <v>5814.327715027426</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -3841,7 +3838,7 @@
         <v>0</v>
       </c>
       <c r="C26">
-        <v>4960</v>
+        <v>4635.517779317834</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -4085,7 +4082,7 @@
         <v>0</v>
       </c>
       <c r="C28">
-        <v>7480</v>
+        <v>7761.646190572197</v>
       </c>
       <c r="D28">
         <v>1280000</v>
@@ -4207,7 +4204,7 @@
         <v>0</v>
       </c>
       <c r="C29">
-        <v>3450</v>
+        <v>3690.113267786719</v>
       </c>
       <c r="D29">
         <v>1000000</v>
@@ -4329,7 +4326,7 @@
         <v>0</v>
       </c>
       <c r="C30">
-        <v>3000</v>
+        <v>2948.84548976845</v>
       </c>
       <c r="D30">
         <v>250000</v>
@@ -4573,7 +4570,7 @@
         <v>1</v>
       </c>
       <c r="C32">
-        <v>730</v>
+        <v>711.1128122770988</v>
       </c>
       <c r="D32">
         <v>2000000</v>
@@ -4695,7 +4692,7 @@
         <v>1</v>
       </c>
       <c r="C33">
-        <v>360</v>
+        <v>466.0709276378625</v>
       </c>
       <c r="D33">
         <v>232509</v>
@@ -4817,7 +4814,7 @@
         <v>0</v>
       </c>
       <c r="C34">
-        <v>5930</v>
+        <v>5885.254624554112</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -4939,7 +4936,7 @@
         <v>0</v>
       </c>
       <c r="C35">
-        <v>2860</v>
+        <v>2965.153206179127</v>
       </c>
       <c r="D35">
         <v>3000000</v>
@@ -5061,7 +5058,7 @@
         <v>1</v>
       </c>
       <c r="C36">
-        <v>710</v>
+        <v>691.8942672110555</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -5163,7 +5160,7 @@
         <v>0</v>
       </c>
       <c r="AL36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM36">
         <v>0</v>
@@ -5183,7 +5180,7 @@
         <v>0</v>
       </c>
       <c r="C37">
-        <v>1570</v>
+        <v>1577.487171555845</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -5305,7 +5302,7 @@
         <v>0</v>
       </c>
       <c r="C38">
-        <v>5540</v>
+        <v>5660.517066940175</v>
       </c>
       <c r="D38">
         <v>288389</v>
@@ -5407,7 +5404,7 @@
         <v>0</v>
       </c>
       <c r="AL38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM38">
         <v>1</v>
@@ -5427,7 +5424,7 @@
         <v>0</v>
       </c>
       <c r="C39">
-        <v>6320</v>
+        <v>6711.616186806423</v>
       </c>
       <c r="D39">
         <v>3000000</v>
@@ -5549,7 +5546,7 @@
         <v>0</v>
       </c>
       <c r="C40">
-        <v>4970</v>
+        <v>5360.226632400601</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -5671,7 +5668,7 @@
         <v>0</v>
       </c>
       <c r="C41">
-        <v>3540</v>
+        <v>3587.183047009039</v>
       </c>
       <c r="D41">
         <v>157080</v>
@@ -5793,7 +5790,7 @@
         <v>0</v>
       </c>
       <c r="C42">
-        <v>7580</v>
+        <v>7453.823475007535</v>
       </c>
       <c r="D42">
         <v>1280000</v>
@@ -6037,7 +6034,7 @@
         <v>0</v>
       </c>
       <c r="C44">
-        <v>7290</v>
+        <v>6911.59200404802</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -6159,7 +6156,7 @@
         <v>0</v>
       </c>
       <c r="C45">
-        <v>3100</v>
+        <v>2999.422762626143</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -6281,7 +6278,7 @@
         <v>0</v>
       </c>
       <c r="C46">
-        <v>6280</v>
+        <v>6051.685746144485</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -6403,7 +6400,7 @@
         <v>0</v>
       </c>
       <c r="C47">
-        <v>1690</v>
+        <v>1657.651524528445</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -6525,7 +6522,7 @@
         <v>1</v>
       </c>
       <c r="C48">
-        <v>730</v>
+        <v>684.6474015015979</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -6647,7 +6644,7 @@
         <v>1</v>
       </c>
       <c r="C49">
-        <v>380</v>
+        <v>495.763971160512</v>
       </c>
       <c r="D49">
         <v>232509</v>
@@ -6769,7 +6766,7 @@
         <v>0</v>
       </c>
       <c r="C50">
-        <v>2980</v>
+        <v>2995.45235738661</v>
       </c>
       <c r="D50">
         <v>204000</v>
@@ -7013,7 +7010,7 @@
         <v>0</v>
       </c>
       <c r="C52">
-        <v>3650</v>
+        <v>3487.613616731733</v>
       </c>
       <c r="D52">
         <v>157080</v>
@@ -7135,7 +7132,7 @@
         <v>0</v>
       </c>
       <c r="C53">
-        <v>7590</v>
+        <v>7179.116970062444</v>
       </c>
       <c r="D53">
         <v>0</v>
@@ -7379,7 +7376,7 @@
         <v>0</v>
       </c>
       <c r="C55">
-        <v>7910</v>
+        <v>7200.731056811853</v>
       </c>
       <c r="D55">
         <v>0</v>
@@ -7501,7 +7498,7 @@
         <v>0</v>
       </c>
       <c r="C56">
-        <v>3320</v>
+        <v>3056.152683606517</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -7623,7 +7620,7 @@
         <v>0</v>
       </c>
       <c r="C57">
-        <v>6640</v>
+        <v>6203.843262938323</v>
       </c>
       <c r="D57">
         <v>200000</v>
@@ -7745,7 +7742,7 @@
         <v>0</v>
       </c>
       <c r="C58">
-        <v>1780</v>
+        <v>1716.389195271215</v>
       </c>
       <c r="D58">
         <v>0</v>
@@ -7867,7 +7864,7 @@
         <v>1</v>
       </c>
       <c r="C59">
-        <v>780</v>
+        <v>680.3923729568069</v>
       </c>
       <c r="D59">
         <v>0</v>
@@ -7989,7 +7986,7 @@
         <v>1</v>
       </c>
       <c r="C60">
-        <v>400</v>
+        <v>503.3023574516347</v>
       </c>
       <c r="D60">
         <v>0</v>
@@ -8111,7 +8108,7 @@
         <v>0</v>
       </c>
       <c r="C61">
-        <v>3090</v>
+        <v>3087.12349650562</v>
       </c>
       <c r="D61">
         <v>204000</v>
@@ -8355,7 +8352,7 @@
         <v>0</v>
       </c>
       <c r="C63">
-        <v>3750</v>
+        <v>3405.472039138021</v>
       </c>
       <c r="D63">
         <v>0</v>
@@ -8477,7 +8474,7 @@
         <v>0</v>
       </c>
       <c r="C64">
-        <v>7610</v>
+        <v>6978.952586250825</v>
       </c>
       <c r="D64">
         <v>0</v>
@@ -8721,7 +8718,7 @@
         <v>0</v>
       </c>
       <c r="C66">
-        <v>8190</v>
+        <v>7449.08671983612</v>
       </c>
       <c r="D66">
         <v>240000</v>
@@ -8843,7 +8840,7 @@
         <v>0</v>
       </c>
       <c r="C67">
-        <v>6840</v>
+        <v>6255.426161047989</v>
       </c>
       <c r="D67">
         <v>200000</v>
@@ -8965,7 +8962,7 @@
         <v>0</v>
       </c>
       <c r="C68">
-        <v>3460</v>
+        <v>3137.260298393558</v>
       </c>
       <c r="D68">
         <v>300000</v>
@@ -9087,7 +9084,7 @@
         <v>0</v>
       </c>
       <c r="C69">
-        <v>3830</v>
+        <v>3353.623382286602</v>
       </c>
       <c r="D69">
         <v>0</v>
@@ -9209,7 +9206,7 @@
         <v>0</v>
       </c>
       <c r="C70">
-        <v>7500</v>
+        <v>6753.607115829548</v>
       </c>
       <c r="D70">
         <v>0</v>
@@ -9331,7 +9328,7 @@
         <v>1</v>
       </c>
       <c r="C71">
-        <v>810</v>
+        <v>707.8672001573369</v>
       </c>
       <c r="D71">
         <v>2500000</v>
@@ -9453,7 +9450,7 @@
         <v>0</v>
       </c>
       <c r="C72">
-        <v>3060</v>
+        <v>3125.07948072635</v>
       </c>
       <c r="D72">
         <v>2500000</v>
@@ -9575,7 +9572,7 @@
         <v>0</v>
       </c>
       <c r="C73">
-        <v>1850</v>
+        <v>1775.027517189621</v>
       </c>
       <c r="D73">
         <v>0</v>
@@ -9697,7 +9694,7 @@
         <v>1</v>
       </c>
       <c r="C74">
-        <v>410</v>
+        <v>515.8271637832048</v>
       </c>
       <c r="D74">
         <v>2500000</v>
@@ -10063,7 +10060,7 @@
         <v>0</v>
       </c>
       <c r="C77">
-        <v>7330</v>
+        <v>7580.275568826287</v>
       </c>
       <c r="D77">
         <v>240000</v>
@@ -10185,7 +10182,7 @@
         <v>0</v>
       </c>
       <c r="C78">
-        <v>7230</v>
+        <v>6522.736799041846</v>
       </c>
       <c r="D78">
         <v>0</v>
@@ -10307,7 +10304,7 @@
         <v>0</v>
       </c>
       <c r="C79">
-        <v>3620</v>
+        <v>3210.869677115934</v>
       </c>
       <c r="D79">
         <v>300000</v>
@@ -10429,7 +10426,7 @@
         <v>0</v>
       </c>
       <c r="C80">
-        <v>3870</v>
+        <v>3305.422815235401</v>
       </c>
       <c r="D80">
         <v>0</v>
@@ -10551,7 +10548,7 @@
         <v>0</v>
       </c>
       <c r="C81">
-        <v>7290</v>
+        <v>6487.899081675427</v>
       </c>
       <c r="D81">
         <v>300705</v>
@@ -10673,7 +10670,7 @@
         <v>0</v>
       </c>
       <c r="C82">
-        <v>790</v>
+        <v>729.7808175407341</v>
       </c>
       <c r="D82">
         <v>2500000</v>
@@ -10795,7 +10792,7 @@
         <v>0</v>
       </c>
       <c r="C83">
-        <v>3020</v>
+        <v>3222.05417836739</v>
       </c>
       <c r="D83">
         <v>2500000</v>
@@ -10917,7 +10914,7 @@
         <v>0</v>
       </c>
       <c r="C84">
-        <v>1910</v>
+        <v>1836.014008604312</v>
       </c>
       <c r="D84">
         <v>0</v>
@@ -11039,7 +11036,7 @@
         <v>0</v>
       </c>
       <c r="C85">
-        <v>390</v>
+        <v>517.8609592583078</v>
       </c>
       <c r="D85">
         <v>2500000</v>
@@ -11405,7 +11402,7 @@
         <v>0</v>
       </c>
       <c r="C88">
-        <v>6460</v>
+        <v>7633.969039669125</v>
       </c>
       <c r="D88">
         <v>0</v>
@@ -11526,8 +11523,8 @@
       <c r="B89">
         <v>0</v>
       </c>
-      <c r="C89" t="s">
-        <v>129</v>
+      <c r="C89">
+        <v>6550.274372976741</v>
       </c>
       <c r="D89">
         <v>0</v>
@@ -11643,13 +11640,13 @@
     </row>
     <row r="90" spans="1:41">
       <c r="A90" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B90">
         <v>0</v>
       </c>
       <c r="C90">
-        <v>3800</v>
+        <v>3242.636921959078</v>
       </c>
       <c r="D90">
         <v>0</v>
@@ -11765,13 +11762,13 @@
     </row>
     <row r="91" spans="1:41">
       <c r="A91" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B91">
         <v>0</v>
       </c>
       <c r="C91">
-        <v>3930</v>
+        <v>3271.088200372761</v>
       </c>
       <c r="D91">
         <v>550000</v>
@@ -11887,13 +11884,13 @@
     </row>
     <row r="92" spans="1:41">
       <c r="A92" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B92">
         <v>0</v>
       </c>
       <c r="C92">
-        <v>7250</v>
+        <v>6411.986543373589</v>
       </c>
       <c r="D92">
         <v>300705</v>
@@ -12009,13 +12006,13 @@
     </row>
     <row r="93" spans="1:41">
       <c r="A93" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B93">
         <v>1</v>
       </c>
       <c r="C93">
-        <v>780</v>
+        <v>749.2194349876407</v>
       </c>
       <c r="D93">
         <v>0</v>
@@ -12131,13 +12128,13 @@
     </row>
     <row r="94" spans="1:41">
       <c r="A94" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B94">
         <v>0</v>
       </c>
       <c r="C94">
-        <v>2890</v>
+        <v>3212.81539531051</v>
       </c>
       <c r="D94">
         <v>0</v>
@@ -12253,13 +12250,13 @@
     </row>
     <row r="95" spans="1:41">
       <c r="A95" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B95">
         <v>0</v>
       </c>
       <c r="C95">
-        <v>2000</v>
+        <v>1895.214690888655</v>
       </c>
       <c r="D95">
         <v>0</v>
@@ -12375,13 +12372,13 @@
     </row>
     <row r="96" spans="1:41">
       <c r="A96" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B96">
         <v>1</v>
       </c>
       <c r="C96">
-        <v>370</v>
+        <v>526.5953412037009</v>
       </c>
       <c r="D96">
         <v>0</v>
@@ -12497,7 +12494,7 @@
     </row>
     <row r="97" spans="1:41">
       <c r="A97" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -12619,7 +12616,7 @@
     </row>
     <row r="98" spans="1:41">
       <c r="A98" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B98">
         <v>0</v>

--- a/output/mpdl.xlsx
+++ b/output/mpdl.xlsx
@@ -1032,10 +1032,10 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>914.4454289880559</v>
       </c>
       <c r="D3">
-        <v>297515</v>
+        <v>0</v>
       </c>
       <c r="E3">
         <v>501309</v>
@@ -1523,7 +1523,7 @@
         <v>5191.140356354663</v>
       </c>
       <c r="D7">
-        <v>243452</v>
+        <v>0</v>
       </c>
       <c r="E7">
         <v>537139</v>
@@ -2252,10 +2252,10 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>2235.045836135583</v>
       </c>
       <c r="D13">
-        <v>351702</v>
+        <v>0</v>
       </c>
       <c r="E13">
         <v>979149</v>
@@ -2496,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>937.175305459579</v>
       </c>
       <c r="D15">
         <v>349900</v>
@@ -3960,7 +3960,7 @@
         <v>0</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>2354.125986718473</v>
       </c>
       <c r="D27">
         <v>1000000</v>
@@ -4329,7 +4329,7 @@
         <v>2948.84548976845</v>
       </c>
       <c r="D30">
-        <v>250000</v>
+        <v>0</v>
       </c>
       <c r="E30">
         <v>292800</v>
@@ -4448,10 +4448,10 @@
         <v>0</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>973.1190116235886</v>
       </c>
       <c r="D31">
-        <v>349900</v>
+        <v>0</v>
       </c>
       <c r="E31">
         <v>338686</v>
@@ -4573,7 +4573,7 @@
         <v>711.1128122770988</v>
       </c>
       <c r="D32">
-        <v>2000000</v>
+        <v>0</v>
       </c>
       <c r="E32">
         <v>292800</v>
@@ -4939,7 +4939,7 @@
         <v>2965.153206179127</v>
       </c>
       <c r="D35">
-        <v>3000000</v>
+        <v>0</v>
       </c>
       <c r="E35">
         <v>518207</v>
@@ -5305,7 +5305,7 @@
         <v>5660.517066940175</v>
       </c>
       <c r="D38">
-        <v>288389</v>
+        <v>0</v>
       </c>
       <c r="E38">
         <v>328089</v>
@@ -5427,7 +5427,7 @@
         <v>6711.616186806423</v>
       </c>
       <c r="D39">
-        <v>3000000</v>
+        <v>0</v>
       </c>
       <c r="E39">
         <v>1021337</v>
@@ -5793,7 +5793,7 @@
         <v>7453.823475007535</v>
       </c>
       <c r="D42">
-        <v>1280000</v>
+        <v>0</v>
       </c>
       <c r="E42">
         <v>565375</v>
@@ -5912,10 +5912,10 @@
         <v>0</v>
       </c>
       <c r="C43">
-        <v>0</v>
+        <v>2580.369788543324</v>
       </c>
       <c r="D43">
-        <v>1000000</v>
+        <v>0</v>
       </c>
       <c r="E43">
         <v>647715</v>
@@ -6647,7 +6647,7 @@
         <v>495.763971160512</v>
       </c>
       <c r="D49">
-        <v>232509</v>
+        <v>0</v>
       </c>
       <c r="E49">
         <v>375693</v>
@@ -6888,7 +6888,7 @@
         <v>0</v>
       </c>
       <c r="C51">
-        <v>0</v>
+        <v>988.4992779375814</v>
       </c>
       <c r="D51">
         <v>0</v>
@@ -7013,7 +7013,7 @@
         <v>3487.613616731733</v>
       </c>
       <c r="D52">
-        <v>157080</v>
+        <v>0</v>
       </c>
       <c r="E52">
         <v>909649</v>
@@ -7254,7 +7254,7 @@
         <v>0</v>
       </c>
       <c r="C54">
-        <v>0</v>
+        <v>2675.677541978231</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -7382,7 +7382,7 @@
         <v>0</v>
       </c>
       <c r="E55">
-        <v>396045.805</v>
+        <v>1931814</v>
       </c>
       <c r="F55">
         <v>1</v>
@@ -7504,7 +7504,7 @@
         <v>0</v>
       </c>
       <c r="E56">
-        <v>362467.54</v>
+        <v>908980</v>
       </c>
       <c r="F56">
         <v>1</v>
@@ -7626,7 +7626,7 @@
         <v>200000</v>
       </c>
       <c r="E57">
-        <v>845.985</v>
+        <v>279557</v>
       </c>
       <c r="F57">
         <v>1</v>
@@ -7748,7 +7748,7 @@
         <v>0</v>
       </c>
       <c r="E58">
-        <v>37729.87</v>
+        <v>223331</v>
       </c>
       <c r="F58">
         <v>1</v>
@@ -7870,7 +7870,7 @@
         <v>0</v>
       </c>
       <c r="E59">
-        <v>158767.575</v>
+        <v>1851443</v>
       </c>
       <c r="F59">
         <v>1</v>
@@ -7992,7 +7992,7 @@
         <v>0</v>
       </c>
       <c r="E60">
-        <v>116385.485</v>
+        <v>375693</v>
       </c>
       <c r="F60">
         <v>1</v>
@@ -8111,10 +8111,10 @@
         <v>3087.12349650562</v>
       </c>
       <c r="D61">
-        <v>204000</v>
+        <v>0</v>
       </c>
       <c r="E61">
-        <v>98283.84</v>
+        <v>707824</v>
       </c>
       <c r="F61">
         <v>1</v>
@@ -8230,13 +8230,13 @@
         <v>0</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>1018.750753846855</v>
       </c>
       <c r="D62">
         <v>0</v>
       </c>
       <c r="E62">
-        <v>97513.14999999999</v>
+        <v>619546</v>
       </c>
       <c r="F62">
         <v>1</v>
@@ -8358,7 +8358,7 @@
         <v>0</v>
       </c>
       <c r="E63">
-        <v>86163.925</v>
+        <v>909649</v>
       </c>
       <c r="F63">
         <v>1</v>
@@ -8480,7 +8480,7 @@
         <v>0</v>
       </c>
       <c r="E64">
-        <v>7500</v>
+        <v>586045</v>
       </c>
       <c r="F64">
         <v>1</v>
@@ -8596,13 +8596,13 @@
         <v>0</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>2670.127177203784</v>
       </c>
       <c r="D65">
         <v>0</v>
       </c>
       <c r="E65">
-        <v>56488.38</v>
+        <v>457367</v>
       </c>
       <c r="F65">
         <v>1</v>
@@ -8843,7 +8843,7 @@
         <v>6255.426161047989</v>
       </c>
       <c r="D67">
-        <v>200000</v>
+        <v>0</v>
       </c>
       <c r="E67">
         <v>845.985</v>
@@ -9816,7 +9816,7 @@
         <v>0</v>
       </c>
       <c r="C75">
-        <v>0</v>
+        <v>1031.276228639696</v>
       </c>
       <c r="D75">
         <v>0</v>
@@ -9938,7 +9938,7 @@
         <v>0</v>
       </c>
       <c r="C76">
-        <v>0</v>
+        <v>2603.521013626997</v>
       </c>
       <c r="D76">
         <v>0</v>
@@ -10063,10 +10063,10 @@
         <v>7580.275568826287</v>
       </c>
       <c r="D77">
-        <v>240000</v>
+        <v>0</v>
       </c>
       <c r="E77">
-        <v>354729.215</v>
+        <v>396045.805</v>
       </c>
       <c r="F77">
         <v>1</v>
@@ -10188,7 +10188,7 @@
         <v>0</v>
       </c>
       <c r="E78">
-        <v>56214.94</v>
+        <v>845.985</v>
       </c>
       <c r="F78">
         <v>1</v>
@@ -10307,10 +10307,10 @@
         <v>3210.869677115934</v>
       </c>
       <c r="D79">
-        <v>300000</v>
+        <v>0</v>
       </c>
       <c r="E79">
-        <v>160295.21</v>
+        <v>362467.54</v>
       </c>
       <c r="F79">
         <v>1</v>
@@ -10432,7 +10432,7 @@
         <v>0</v>
       </c>
       <c r="E80">
-        <v>77794.38499999999</v>
+        <v>86163.925</v>
       </c>
       <c r="F80">
         <v>1</v>
@@ -10554,7 +10554,7 @@
         <v>300705</v>
       </c>
       <c r="E81">
-        <v>53598.99</v>
+        <v>7500</v>
       </c>
       <c r="F81">
         <v>1</v>
@@ -10667,16 +10667,16 @@
         <v>121</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C82">
         <v>729.7808175407341</v>
       </c>
       <c r="D82">
-        <v>2500000</v>
+        <v>0</v>
       </c>
       <c r="E82">
-        <v>634350.265</v>
+        <v>158767.575</v>
       </c>
       <c r="F82">
         <v>1</v>
@@ -10795,10 +10795,10 @@
         <v>3222.05417836739</v>
       </c>
       <c r="D83">
-        <v>2500000</v>
+        <v>0</v>
       </c>
       <c r="E83">
-        <v>187712.025</v>
+        <v>98283.84</v>
       </c>
       <c r="F83">
         <v>1</v>
@@ -10920,7 +10920,7 @@
         <v>0</v>
       </c>
       <c r="E84">
-        <v>234371.025</v>
+        <v>37729.87</v>
       </c>
       <c r="F84">
         <v>1</v>
@@ -11033,16 +11033,16 @@
         <v>124</v>
       </c>
       <c r="B85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C85">
         <v>517.8609592583078</v>
       </c>
       <c r="D85">
-        <v>2500000</v>
+        <v>0</v>
       </c>
       <c r="E85">
-        <v>276902.02</v>
+        <v>116385.485</v>
       </c>
       <c r="F85">
         <v>1</v>
@@ -11158,13 +11158,13 @@
         <v>0</v>
       </c>
       <c r="C86">
-        <v>0</v>
+        <v>1063.277878861239</v>
       </c>
       <c r="D86">
         <v>0</v>
       </c>
       <c r="E86">
-        <v>140357.385</v>
+        <v>97513.14999999999</v>
       </c>
       <c r="F86">
         <v>1</v>
@@ -11280,13 +11280,13 @@
         <v>0</v>
       </c>
       <c r="C87">
-        <v>0</v>
+        <v>2631.811984847832</v>
       </c>
       <c r="D87">
         <v>0</v>
       </c>
       <c r="E87">
-        <v>103898.595</v>
+        <v>56488.38</v>
       </c>
       <c r="F87">
         <v>1</v>
@@ -11893,7 +11893,7 @@
         <v>6411.986543373589</v>
       </c>
       <c r="D92">
-        <v>300705</v>
+        <v>0</v>
       </c>
       <c r="E92">
         <v>53598.99</v>
@@ -12500,7 +12500,7 @@
         <v>0</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>1060.229080452468</v>
       </c>
       <c r="D97">
         <v>0</v>
@@ -12622,7 +12622,7 @@
         <v>0</v>
       </c>
       <c r="C98">
-        <v>0</v>
+        <v>2694.5225262147</v>
       </c>
       <c r="D98">
         <v>0</v>
